--- a/genomic_range/results/Specificity_Table.xlsx
+++ b/genomic_range/results/Specificity_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mei/iMac_Backup_3_12_2019/GSAChipSeqBenchmarkData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mei/Desktop/benchmarks/genomic_range/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02532616-3D3C-E544-9C38-8E72E6A00D2F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AC5C1A-BE31-2541-8AE0-026C9775477D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35340" yWindow="460" windowWidth="15860" windowHeight="28340" xr2:uid="{9FDEA6EF-D5C4-7F45-96BD-DB608973E662}"/>
+    <workbookView xWindow="35340" yWindow="460" windowWidth="15860" windowHeight="26780" xr2:uid="{9FDEA6EF-D5C4-7F45-96BD-DB608973E662}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>Chipenrich_Colorectal_Cancer</t>
   </si>
@@ -412,6 +412,21 @@
   </si>
   <si>
     <t>Enrichr_Median_Specificity</t>
+  </si>
+  <si>
+    <t>GREAT_Colorectal_Cancer</t>
+  </si>
+  <si>
+    <t>GREAT_Alzheimers_Disease</t>
+  </si>
+  <si>
+    <t>GREAT_Gastric_Cancer</t>
+  </si>
+  <si>
+    <t>GREAT_Prostate_Cancer</t>
+  </si>
+  <si>
+    <t>GREAT_Median_Specificity</t>
   </si>
 </sst>
 </file>
@@ -778,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DBC195-AB1D-C14E-9476-031E2CC25C6F}">
-  <dimension ref="A1:U107"/>
+  <dimension ref="A1:Z107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O91" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="T106" sqref="T106"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2:Z107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -801,15 +816,20 @@
     <col min="13" max="13" width="25.83203125" customWidth="1"/>
     <col min="14" max="14" width="26.83203125" customWidth="1"/>
     <col min="15" max="15" width="28.33203125" customWidth="1"/>
-    <col min="16" max="16" width="12.5" customWidth="1"/>
-    <col min="17" max="17" width="22.1640625" customWidth="1"/>
-    <col min="18" max="18" width="24" customWidth="1"/>
-    <col min="19" max="19" width="20.1640625" customWidth="1"/>
-    <col min="20" max="20" width="21.1640625" customWidth="1"/>
-    <col min="21" max="21" width="23" customWidth="1"/>
+    <col min="16" max="16" width="22.1640625" customWidth="1"/>
+    <col min="17" max="17" width="24" customWidth="1"/>
+    <col min="18" max="18" width="20.1640625" customWidth="1"/>
+    <col min="19" max="19" width="21.1640625" customWidth="1"/>
+    <col min="20" max="20" width="23" customWidth="1"/>
+    <col min="21" max="21" width="12.5" customWidth="1"/>
+    <col min="22" max="22" width="20.5" customWidth="1"/>
+    <col min="23" max="23" width="18.33203125" customWidth="1"/>
+    <col min="24" max="24" width="18" customWidth="1"/>
+    <col min="25" max="25" width="17.6640625" customWidth="1"/>
+    <col min="26" max="26" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -855,26 +875,41 @@
       <c r="O1" t="s">
         <v>121</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="U1" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V1" t="s">
+        <v>127</v>
+      </c>
+      <c r="W1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>80.988810000000001</v>
       </c>
@@ -923,27 +958,31 @@
         <f>MEDIAN($K2,$L2,$M2,$N2)</f>
         <v>97.105260000000001</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="1">
+        <v>97.524919999999995</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>97.868679999999998</v>
+      </c>
+      <c r="R2" s="1">
+        <v>97.731179999999995</v>
+      </c>
+      <c r="S2" s="1">
+        <v>97.696799999999996</v>
+      </c>
+      <c r="T2">
+        <f>MEDIAN($P2,$Q2,$R2,$S2)</f>
+        <v>97.713989999999995</v>
+      </c>
+      <c r="U2" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="1">
-        <v>97.524919999999995</v>
-      </c>
-      <c r="R2" s="1">
-        <v>97.868679999999998</v>
-      </c>
-      <c r="S2" s="1">
-        <v>97.731179999999995</v>
-      </c>
-      <c r="T2" s="1">
-        <v>97.696799999999996</v>
-      </c>
-      <c r="U2">
-        <f>MEDIAN($Q2,$R2,$S2,$T2)</f>
-        <v>97.713989999999995</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z2" t="e">
+        <f>MEDIAN($V2,$W2,$X2,$Y2)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>88.808059999999998</v>
       </c>
@@ -992,27 +1031,31 @@
         <f t="shared" ref="O3:O66" si="2">MEDIAN($K3,$L3,$M3,$N3)</f>
         <v>94.970510000000004</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="1">
+        <v>97.275890000000004</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>97.62433</v>
+      </c>
+      <c r="R3" s="1">
+        <v>97.529300000000006</v>
+      </c>
+      <c r="S3" s="1">
+        <v>97.497619999999998</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T66" si="3">MEDIAN($P3,$Q3,$R3,$S3)</f>
+        <v>97.513460000000009</v>
+      </c>
+      <c r="U3" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="1">
-        <v>97.275890000000004</v>
-      </c>
-      <c r="R3" s="1">
-        <v>97.62433</v>
-      </c>
-      <c r="S3" s="1">
-        <v>97.529300000000006</v>
-      </c>
-      <c r="T3" s="1">
-        <v>97.497619999999998</v>
-      </c>
-      <c r="U3">
-        <f t="shared" ref="U3:U66" si="3">MEDIAN($Q3,$R3,$S3,$T3)</f>
-        <v>97.513460000000009</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z3" t="e">
+        <f t="shared" ref="Z3:Z66" si="4">MEDIAN($V3,$W3,$X3,$Y3)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>55.995519999999999</v>
       </c>
@@ -1061,11 +1104,15 @@
         <f t="shared" si="2"/>
         <v>96.457144999999997</v>
       </c>
-      <c r="P4" t="s">
+      <c r="U4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z4" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>96.215509999999995</v>
       </c>
@@ -1098,8 +1145,8 @@
         <f t="shared" si="1"/>
         <v>96.006979999999999</v>
       </c>
-      <c r="P5" t="s">
-        <v>8</v>
+      <c r="P5" s="1">
+        <v>67.924530000000004</v>
       </c>
       <c r="Q5" s="1">
         <v>67.924530000000004</v>
@@ -1110,15 +1157,19 @@
       <c r="S5" s="1">
         <v>67.924530000000004</v>
       </c>
-      <c r="T5" s="1">
-        <v>67.924530000000004</v>
-      </c>
-      <c r="U5">
+      <c r="T5">
         <f t="shared" si="3"/>
         <v>67.924530000000004</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z5" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>56.032870000000003</v>
       </c>
@@ -1167,11 +1218,15 @@
         <f t="shared" si="2"/>
         <v>96.457144999999997</v>
       </c>
-      <c r="P6" t="s">
+      <c r="U6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z6" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>94.740769999999998</v>
       </c>
@@ -1204,27 +1259,31 @@
         <f t="shared" si="1"/>
         <v>98.154365000000013</v>
       </c>
-      <c r="P7" t="s">
-        <v>10</v>
+      <c r="P7" s="1">
+        <v>98.275229999999993</v>
       </c>
       <c r="Q7" s="1">
-        <v>98.275229999999993</v>
+        <v>98.642200000000003</v>
       </c>
       <c r="R7" s="1">
-        <v>98.642200000000003</v>
+        <v>98.532110000000003</v>
       </c>
       <c r="S7" s="1">
-        <v>98.532110000000003</v>
-      </c>
-      <c r="T7" s="1">
         <v>98.45872</v>
       </c>
-      <c r="U7">
+      <c r="T7">
         <f t="shared" si="3"/>
         <v>98.495415000000008</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z7" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>94.070480000000003</v>
       </c>
@@ -1273,27 +1332,31 @@
         <f t="shared" si="2"/>
         <v>96.861404999999991</v>
       </c>
-      <c r="P8" t="s">
-        <v>11</v>
+      <c r="P8" s="1">
+        <v>97.251850000000005</v>
       </c>
       <c r="Q8" s="1">
-        <v>97.251850000000005</v>
+        <v>97.45693</v>
       </c>
       <c r="R8" s="1">
-        <v>97.45693</v>
+        <v>97.374899999999997</v>
       </c>
       <c r="S8" s="1">
-        <v>97.374899999999997</v>
-      </c>
-      <c r="T8" s="1">
         <v>97.333879999999994</v>
       </c>
-      <c r="U8">
+      <c r="T8">
         <f t="shared" si="3"/>
         <v>97.354389999999995</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z8" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>94.070480000000003</v>
       </c>
@@ -1342,27 +1405,31 @@
         <f t="shared" si="2"/>
         <v>96.861404999999991</v>
       </c>
-      <c r="P9" t="s">
-        <v>12</v>
+      <c r="P9" s="1">
+        <v>98.03922</v>
       </c>
       <c r="Q9" s="1">
+        <v>98.284310000000005</v>
+      </c>
+      <c r="R9" s="1">
+        <v>98.088239999999999</v>
+      </c>
+      <c r="S9" s="1">
         <v>98.03922</v>
       </c>
-      <c r="R9" s="1">
-        <v>98.284310000000005</v>
-      </c>
-      <c r="S9" s="1">
-        <v>98.088239999999999</v>
-      </c>
-      <c r="T9" s="1">
-        <v>98.03922</v>
-      </c>
-      <c r="U9">
+      <c r="T9">
         <f t="shared" si="3"/>
         <v>98.063729999999993</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z9" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>94.070480000000003</v>
       </c>
@@ -1411,27 +1478,31 @@
         <f t="shared" si="2"/>
         <v>96.861404999999991</v>
       </c>
-      <c r="P10" t="s">
-        <v>13</v>
+      <c r="P10" s="1">
+        <v>98.03922</v>
       </c>
       <c r="Q10" s="1">
+        <v>98.284310000000005</v>
+      </c>
+      <c r="R10" s="1">
+        <v>98.088239999999999</v>
+      </c>
+      <c r="S10" s="1">
         <v>98.03922</v>
       </c>
-      <c r="R10" s="1">
-        <v>98.284310000000005</v>
-      </c>
-      <c r="S10" s="1">
-        <v>98.088239999999999</v>
-      </c>
-      <c r="T10" s="1">
-        <v>98.03922</v>
-      </c>
-      <c r="U10">
+      <c r="T10">
         <f t="shared" si="3"/>
         <v>98.063729999999993</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U10" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z10" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>94.070480000000003</v>
       </c>
@@ -1480,27 +1551,31 @@
         <f t="shared" si="2"/>
         <v>96.861404999999991</v>
       </c>
-      <c r="P11" t="s">
-        <v>14</v>
+      <c r="P11" s="1">
+        <v>98.03922</v>
       </c>
       <c r="Q11" s="1">
+        <v>98.284310000000005</v>
+      </c>
+      <c r="R11" s="1">
+        <v>98.088239999999999</v>
+      </c>
+      <c r="S11" s="1">
         <v>98.03922</v>
       </c>
-      <c r="R11" s="1">
-        <v>98.284310000000005</v>
-      </c>
-      <c r="S11" s="1">
-        <v>98.088239999999999</v>
-      </c>
-      <c r="T11" s="1">
-        <v>98.03922</v>
-      </c>
-      <c r="U11">
+      <c r="T11">
         <f t="shared" si="3"/>
         <v>98.063729999999993</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z11" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>95.096029999999999</v>
       </c>
@@ -1533,27 +1608,31 @@
         <f t="shared" si="1"/>
         <v>99.105144999999993</v>
       </c>
-      <c r="P12" t="s">
-        <v>15</v>
+      <c r="P12" s="1">
+        <v>97.488169999999997</v>
       </c>
       <c r="Q12" s="1">
-        <v>97.488169999999997</v>
+        <v>97.88861</v>
       </c>
       <c r="R12" s="1">
-        <v>97.88861</v>
+        <v>97.779399999999995</v>
       </c>
       <c r="S12" s="1">
-        <v>97.779399999999995</v>
-      </c>
-      <c r="T12" s="1">
         <v>97.706590000000006</v>
       </c>
-      <c r="U12">
+      <c r="T12">
         <f t="shared" si="3"/>
         <v>97.742995000000008</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z12" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>51.158450000000002</v>
       </c>
@@ -1602,27 +1681,31 @@
         <f t="shared" si="2"/>
         <v>95.204679999999996</v>
       </c>
-      <c r="P13" t="s">
-        <v>16</v>
+      <c r="P13" s="1">
+        <v>89.692250000000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>89.692250000000001</v>
+        <v>90.018550000000005</v>
       </c>
       <c r="R13" s="1">
-        <v>90.018550000000005</v>
+        <v>89.840559999999996</v>
       </c>
       <c r="S13" s="1">
         <v>89.840559999999996</v>
       </c>
-      <c r="T13" s="1">
-        <v>89.840559999999996</v>
-      </c>
-      <c r="U13">
+      <c r="T13">
         <f t="shared" si="3"/>
         <v>89.840559999999996</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z13" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>51.158450000000002</v>
       </c>
@@ -1671,27 +1754,31 @@
         <f t="shared" si="2"/>
         <v>95.204679999999996</v>
       </c>
-      <c r="P14" t="s">
-        <v>17</v>
+      <c r="P14" s="1">
+        <v>91.422399999999996</v>
       </c>
       <c r="Q14" s="1">
-        <v>91.422399999999996</v>
+        <v>91.694969999999998</v>
       </c>
       <c r="R14" s="1">
-        <v>91.694969999999998</v>
+        <v>91.545820000000006</v>
       </c>
       <c r="S14" s="1">
         <v>91.545820000000006</v>
       </c>
-      <c r="T14" s="1">
-        <v>91.545820000000006</v>
-      </c>
-      <c r="U14">
+      <c r="T14">
         <f t="shared" si="3"/>
         <v>91.545820000000006</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U14" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z14" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>51.158450000000002</v>
       </c>
@@ -1740,27 +1827,31 @@
         <f t="shared" si="2"/>
         <v>95.204679999999996</v>
       </c>
-      <c r="P15" t="s">
-        <v>18</v>
+      <c r="P15" s="1">
+        <v>89.783169999999998</v>
       </c>
       <c r="Q15" s="1">
-        <v>89.783169999999998</v>
+        <v>90.106660000000005</v>
       </c>
       <c r="R15" s="1">
-        <v>90.106660000000005</v>
+        <v>89.930170000000004</v>
       </c>
       <c r="S15" s="1">
         <v>89.930170000000004</v>
       </c>
-      <c r="T15" s="1">
-        <v>89.930170000000004</v>
-      </c>
-      <c r="U15">
+      <c r="T15">
         <f t="shared" si="3"/>
         <v>89.930170000000004</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z15" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>94.350179999999995</v>
       </c>
@@ -1809,27 +1900,31 @@
         <f t="shared" si="2"/>
         <v>84.775090000000006</v>
       </c>
-      <c r="P16" t="s">
-        <v>19</v>
+      <c r="P16" s="1">
+        <v>91.218770000000006</v>
       </c>
       <c r="Q16" s="1">
-        <v>91.218770000000006</v>
+        <v>91.452340000000007</v>
       </c>
       <c r="R16" s="1">
-        <v>91.452340000000007</v>
+        <v>91.22542</v>
       </c>
       <c r="S16" s="1">
-        <v>91.22542</v>
-      </c>
-      <c r="T16" s="1">
         <v>91.074129999999997</v>
       </c>
-      <c r="U16">
+      <c r="T16">
         <f t="shared" si="3"/>
         <v>91.222094999999996</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z16" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>59.861789999999999</v>
       </c>
@@ -1878,27 +1973,31 @@
         <f t="shared" si="2"/>
         <v>96.411000000000001</v>
       </c>
-      <c r="P17" t="s">
-        <v>20</v>
+      <c r="P17" s="1">
+        <v>94.468860000000006</v>
       </c>
       <c r="Q17" s="1">
-        <v>94.468860000000006</v>
+        <v>94.761899999999997</v>
       </c>
       <c r="R17" s="1">
-        <v>94.761899999999997</v>
+        <v>94.615380000000002</v>
       </c>
       <c r="S17" s="1">
-        <v>94.615380000000002</v>
-      </c>
-      <c r="T17" s="1">
         <v>94.578749999999999</v>
       </c>
-      <c r="U17">
+      <c r="T17">
         <f t="shared" si="3"/>
         <v>94.597065000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z17" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>72.535470000000004</v>
       </c>
@@ -1947,11 +2046,15 @@
         <f t="shared" si="2"/>
         <v>94.031279999999995</v>
       </c>
-      <c r="P18" t="s">
+      <c r="U18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z18" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>90.039169999999999</v>
       </c>
@@ -2000,27 +2103,31 @@
         <f t="shared" si="2"/>
         <v>72.473119999999994</v>
       </c>
-      <c r="P19" t="s">
-        <v>22</v>
+      <c r="P19" s="1">
+        <v>96.932519999999997</v>
       </c>
       <c r="Q19" s="1">
-        <v>96.932519999999997</v>
+        <v>97.137010000000004</v>
       </c>
       <c r="R19" s="1">
-        <v>97.137010000000004</v>
+        <v>97.000680000000003</v>
       </c>
       <c r="S19" s="1">
         <v>97.000680000000003</v>
       </c>
-      <c r="T19" s="1">
-        <v>97.000680000000003</v>
-      </c>
-      <c r="U19">
+      <c r="T19">
         <f t="shared" si="3"/>
         <v>97.000680000000003</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z19" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>80.358140000000006</v>
       </c>
@@ -2069,27 +2176,31 @@
         <f t="shared" si="2"/>
         <v>91.88494</v>
       </c>
-      <c r="P20" t="s">
-        <v>23</v>
+      <c r="P20" s="1">
+        <v>96.558620000000005</v>
       </c>
       <c r="Q20" s="1">
-        <v>96.558620000000005</v>
+        <v>96.798720000000003</v>
       </c>
       <c r="R20" s="1">
-        <v>96.798720000000003</v>
+        <v>96.678669999999997</v>
       </c>
       <c r="S20" s="1">
-        <v>96.678669999999997</v>
-      </c>
-      <c r="T20" s="1">
         <v>96.638660000000002</v>
       </c>
-      <c r="U20">
+      <c r="T20">
         <f t="shared" si="3"/>
         <v>96.658664999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z20" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>71.679100000000005</v>
       </c>
@@ -2138,11 +2249,15 @@
         <f t="shared" si="2"/>
         <v>94.46108000000001</v>
       </c>
-      <c r="P21" t="s">
+      <c r="U21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z21" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>88.681709999999995</v>
       </c>
@@ -2191,27 +2306,31 @@
         <f t="shared" si="2"/>
         <v>89.730289999999997</v>
       </c>
-      <c r="P22" t="s">
-        <v>25</v>
+      <c r="P22" s="1">
+        <v>94.554090000000002</v>
       </c>
       <c r="Q22" s="1">
-        <v>94.554090000000002</v>
+        <v>94.773390000000006</v>
       </c>
       <c r="R22" s="1">
-        <v>94.773390000000006</v>
+        <v>94.665689999999998</v>
       </c>
       <c r="S22" s="1">
-        <v>94.665689999999998</v>
-      </c>
-      <c r="T22" s="1">
         <v>94.736840000000001</v>
       </c>
-      <c r="U22">
+      <c r="T22">
         <f t="shared" si="3"/>
         <v>94.701265000000006</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U22" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z22" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>62.969189999999998</v>
       </c>
@@ -2260,27 +2379,31 @@
         <f t="shared" si="2"/>
         <v>96.06481500000001</v>
       </c>
-      <c r="P23" t="s">
-        <v>26</v>
+      <c r="P23" s="1">
+        <v>93.871870000000001</v>
       </c>
       <c r="Q23" s="1">
-        <v>93.871870000000001</v>
+        <v>94.086690000000004</v>
       </c>
       <c r="R23" s="1">
-        <v>94.086690000000004</v>
+        <v>93.995670000000004</v>
       </c>
       <c r="S23" s="1">
-        <v>93.995670000000004</v>
-      </c>
-      <c r="T23" s="1">
         <v>93.96472</v>
       </c>
-      <c r="U23">
+      <c r="T23">
         <f t="shared" si="3"/>
         <v>93.980195000000009</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U23" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z23" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>80.458699999999993</v>
       </c>
@@ -2329,11 +2452,15 @@
         <f t="shared" si="2"/>
         <v>93.49736</v>
       </c>
-      <c r="P24" t="s">
+      <c r="U24" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z24" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>71.465869999999995</v>
       </c>
@@ -2382,11 +2509,15 @@
         <f t="shared" si="2"/>
         <v>94.169614999999993</v>
       </c>
-      <c r="P25" t="s">
+      <c r="U25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z25" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>64.70478</v>
       </c>
@@ -2435,11 +2566,15 @@
         <f t="shared" si="2"/>
         <v>97.008054999999999</v>
       </c>
-      <c r="P26" t="s">
+      <c r="U26" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z26" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>67.818449999999999</v>
       </c>
@@ -2488,27 +2623,31 @@
         <f t="shared" si="2"/>
         <v>96.86421</v>
       </c>
-      <c r="P27" t="s">
-        <v>30</v>
+      <c r="P27" s="1">
+        <v>95.451440000000005</v>
       </c>
       <c r="Q27" s="1">
-        <v>95.451440000000005</v>
+        <v>95.658119999999997</v>
       </c>
       <c r="R27" s="1">
-        <v>95.658119999999997</v>
+        <v>95.690830000000005</v>
       </c>
       <c r="S27" s="1">
-        <v>95.690830000000005</v>
-      </c>
-      <c r="T27" s="1">
         <v>95.656630000000007</v>
       </c>
-      <c r="U27">
+      <c r="T27">
         <f t="shared" si="3"/>
         <v>95.657375000000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U27" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z27" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>90.993849999999995</v>
       </c>
@@ -2557,27 +2696,31 @@
         <f t="shared" si="2"/>
         <v>87.539429999999996</v>
       </c>
-      <c r="P28" t="s">
-        <v>31</v>
+      <c r="P28" s="1">
+        <v>93.097099999999998</v>
       </c>
       <c r="Q28" s="1">
-        <v>93.097099999999998</v>
+        <v>93.511269999999996</v>
       </c>
       <c r="R28" s="1">
-        <v>93.511269999999996</v>
+        <v>93.327200000000005</v>
       </c>
       <c r="S28" s="1">
-        <v>93.327200000000005</v>
-      </c>
-      <c r="T28" s="1">
         <v>93.281180000000006</v>
       </c>
-      <c r="U28">
+      <c r="T28">
         <f t="shared" si="3"/>
         <v>93.304190000000006</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U28" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z28" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>81.212689999999995</v>
       </c>
@@ -2626,27 +2769,31 @@
         <f t="shared" si="2"/>
         <v>98.637524999999997</v>
       </c>
-      <c r="P29" t="s">
-        <v>32</v>
+      <c r="P29" s="1">
+        <v>98.040520000000001</v>
       </c>
       <c r="Q29" s="1">
-        <v>98.040520000000001</v>
+        <v>98.339420000000004</v>
       </c>
       <c r="R29" s="1">
-        <v>98.339420000000004</v>
+        <v>98.206580000000002</v>
       </c>
       <c r="S29" s="1">
-        <v>98.206580000000002</v>
-      </c>
-      <c r="T29" s="1">
         <v>98.173360000000002</v>
       </c>
-      <c r="U29">
+      <c r="T29">
         <f t="shared" si="3"/>
         <v>98.189970000000002</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U29" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z29" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>72.324929999999995</v>
       </c>
@@ -2695,27 +2842,31 @@
         <f t="shared" si="2"/>
         <v>97.551950000000005</v>
       </c>
-      <c r="P30" t="s">
-        <v>33</v>
+      <c r="P30" s="1">
+        <v>97.7607</v>
       </c>
       <c r="Q30" s="1">
-        <v>97.7607</v>
+        <v>98.094920000000002</v>
       </c>
       <c r="R30" s="1">
-        <v>98.094920000000002</v>
+        <v>97.96123</v>
       </c>
       <c r="S30" s="1">
-        <v>97.96123</v>
-      </c>
-      <c r="T30" s="1">
         <v>97.927809999999994</v>
       </c>
-      <c r="U30">
+      <c r="T30">
         <f t="shared" si="3"/>
         <v>97.944519999999997</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U30" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z30" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>77.645079999999993</v>
       </c>
@@ -2764,27 +2915,31 @@
         <f t="shared" si="2"/>
         <v>98.523145</v>
       </c>
-      <c r="P31" t="s">
-        <v>34</v>
+      <c r="P31" s="1">
+        <v>98.389309999999995</v>
       </c>
       <c r="Q31" s="1">
-        <v>98.389309999999995</v>
+        <v>98.7667</v>
       </c>
       <c r="R31" s="1">
-        <v>98.7667</v>
+        <v>98.697739999999996</v>
       </c>
       <c r="S31" s="1">
-        <v>98.697739999999996</v>
-      </c>
-      <c r="T31" s="1">
         <v>98.663470000000004</v>
       </c>
-      <c r="U31">
+      <c r="T31">
         <f t="shared" si="3"/>
         <v>98.680605</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U31" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z31" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>81.022580000000005</v>
       </c>
@@ -2829,27 +2984,31 @@
       <c r="N32" s="1">
         <v>98.694670000000002</v>
       </c>
-      <c r="P32" t="s">
-        <v>35</v>
+      <c r="P32" s="1">
+        <v>98.062399999999997</v>
       </c>
       <c r="Q32" s="1">
-        <v>98.062399999999997</v>
+        <v>98.358500000000006</v>
       </c>
       <c r="R32" s="1">
-        <v>98.358500000000006</v>
+        <v>98.292280000000005</v>
       </c>
       <c r="S32" s="1">
-        <v>98.292280000000005</v>
-      </c>
-      <c r="T32" s="1">
         <v>98.259439999999998</v>
       </c>
-      <c r="U32">
+      <c r="T32">
         <f t="shared" si="3"/>
         <v>98.275859999999994</v>
       </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U32" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z32" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>85.399959999999993</v>
       </c>
@@ -2898,27 +3057,31 @@
         <f>MEDIAN($K33,$L33,$M32,$N33)</f>
         <v>98.751059999999995</v>
       </c>
-      <c r="P33" t="s">
-        <v>36</v>
+      <c r="P33" s="1">
+        <v>97.975440000000006</v>
       </c>
       <c r="Q33" s="1">
-        <v>97.975440000000006</v>
+        <v>98.240960000000001</v>
       </c>
       <c r="R33" s="1">
-        <v>98.240960000000001</v>
+        <v>98.141390000000001</v>
       </c>
       <c r="S33" s="1">
-        <v>98.141390000000001</v>
-      </c>
-      <c r="T33" s="1">
         <v>98.075010000000006</v>
       </c>
-      <c r="U33">
+      <c r="T33">
         <f t="shared" si="3"/>
         <v>98.108200000000011</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U33" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z33" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>81.492540000000005</v>
       </c>
@@ -2967,27 +3130,31 @@
         <f t="shared" si="2"/>
         <v>98.579544999999996</v>
       </c>
-      <c r="P34" t="s">
-        <v>37</v>
+      <c r="P34" s="1">
+        <v>95.814980000000006</v>
       </c>
       <c r="Q34" s="1">
-        <v>95.814980000000006</v>
+        <v>95.911950000000004</v>
       </c>
       <c r="R34" s="1">
-        <v>95.911950000000004</v>
+        <v>95.880499999999998</v>
       </c>
       <c r="S34" s="1">
-        <v>95.880499999999998</v>
-      </c>
-      <c r="T34" s="1">
         <v>95.910659999999993</v>
       </c>
-      <c r="U34">
+      <c r="T34">
         <f t="shared" si="3"/>
         <v>95.895579999999995</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U34" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z34" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>68.801339999999996</v>
       </c>
@@ -3036,27 +3203,31 @@
         <f t="shared" si="2"/>
         <v>97.435164999999998</v>
       </c>
-      <c r="P35" t="s">
-        <v>38</v>
+      <c r="P35" s="1">
+        <v>97.377049999999997</v>
       </c>
       <c r="Q35" s="1">
-        <v>97.377049999999997</v>
+        <v>97.73845</v>
       </c>
       <c r="R35" s="1">
-        <v>97.73845</v>
+        <v>97.672129999999996</v>
       </c>
       <c r="S35" s="1">
-        <v>97.672129999999996</v>
-      </c>
-      <c r="T35" s="1">
         <v>97.639340000000004</v>
       </c>
-      <c r="U35">
+      <c r="T35">
         <f t="shared" si="3"/>
         <v>97.655734999999993</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U35" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z35" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>65.658259999999999</v>
       </c>
@@ -3105,27 +3276,31 @@
         <f t="shared" si="2"/>
         <v>97.26339999999999</v>
       </c>
-      <c r="P36" t="s">
-        <v>39</v>
+      <c r="P36" s="1">
+        <v>96.267939999999996</v>
       </c>
       <c r="Q36" s="1">
-        <v>96.267939999999996</v>
+        <v>96.491230000000002</v>
       </c>
       <c r="R36" s="1">
-        <v>96.491230000000002</v>
+        <v>96.395529999999994</v>
       </c>
       <c r="S36" s="1">
-        <v>96.395529999999994</v>
-      </c>
-      <c r="T36" s="1">
         <v>96.363640000000004</v>
       </c>
-      <c r="U36">
+      <c r="T36">
         <f t="shared" si="3"/>
         <v>96.379584999999992</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U36" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z36" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>67.220770000000002</v>
       </c>
@@ -3174,27 +3349,31 @@
         <f t="shared" si="2"/>
         <v>97.411830000000009</v>
       </c>
-      <c r="P37" t="s">
-        <v>40</v>
+      <c r="P37" s="1">
+        <v>97.226550000000003</v>
       </c>
       <c r="Q37" s="1">
-        <v>97.226550000000003</v>
+        <v>97.569339999999997</v>
       </c>
       <c r="R37" s="1">
-        <v>97.569339999999997</v>
+        <v>97.475849999999994</v>
       </c>
       <c r="S37" s="1">
-        <v>97.475849999999994</v>
-      </c>
-      <c r="T37" s="1">
         <v>97.413520000000005</v>
       </c>
-      <c r="U37">
+      <c r="T37">
         <f t="shared" si="3"/>
         <v>97.444684999999993</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U37" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z37" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>66.629320000000007</v>
       </c>
@@ -3243,27 +3422,31 @@
         <f t="shared" si="2"/>
         <v>97.324984999999998</v>
       </c>
-      <c r="P38" t="s">
-        <v>41</v>
+      <c r="P38" s="1">
+        <v>94.382019999999997</v>
       </c>
       <c r="Q38" s="1">
-        <v>94.382019999999997</v>
+        <v>94.655330000000006</v>
       </c>
       <c r="R38" s="1">
-        <v>94.655330000000006</v>
+        <v>94.564229999999995</v>
       </c>
       <c r="S38" s="1">
-        <v>94.564229999999995</v>
-      </c>
-      <c r="T38" s="1">
         <v>94.533860000000004</v>
       </c>
-      <c r="U38">
+      <c r="T38">
         <f t="shared" si="3"/>
         <v>94.549045000000007</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z38" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>64.2697</v>
       </c>
@@ -3312,27 +3495,31 @@
         <f t="shared" si="2"/>
         <v>97.455685000000003</v>
       </c>
-      <c r="P39" t="s">
-        <v>42</v>
+      <c r="P39" s="1">
+        <v>94.701170000000005</v>
       </c>
       <c r="Q39" s="1">
-        <v>94.701170000000005</v>
+        <v>94.946070000000006</v>
       </c>
       <c r="R39" s="1">
-        <v>94.946070000000006</v>
+        <v>94.85521</v>
       </c>
       <c r="S39" s="1">
-        <v>94.85521</v>
-      </c>
-      <c r="T39" s="1">
         <v>94.824399999999997</v>
       </c>
-      <c r="U39">
+      <c r="T39">
         <f t="shared" si="3"/>
         <v>94.839804999999998</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U39" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z39" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>69.20635</v>
       </c>
@@ -3381,27 +3568,31 @@
         <f t="shared" si="2"/>
         <v>96.939359999999994</v>
       </c>
-      <c r="P40" t="s">
-        <v>43</v>
+      <c r="P40" s="1">
+        <v>96.952010000000001</v>
       </c>
       <c r="Q40" s="1">
-        <v>96.952010000000001</v>
+        <v>97.146559999999994</v>
       </c>
       <c r="R40" s="1">
-        <v>97.146559999999994</v>
+        <v>97.114140000000006</v>
       </c>
       <c r="S40" s="1">
-        <v>97.114140000000006</v>
-      </c>
-      <c r="T40" s="1">
         <v>97.081710000000001</v>
       </c>
-      <c r="U40">
+      <c r="T40">
         <f t="shared" si="3"/>
         <v>97.097925000000004</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U40" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z40" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>66.100110000000001</v>
       </c>
@@ -3450,27 +3641,31 @@
         <f t="shared" si="2"/>
         <v>97.169000000000011</v>
       </c>
-      <c r="P41" t="s">
-        <v>44</v>
+      <c r="P41" s="1">
+        <v>95.480230000000006</v>
       </c>
       <c r="Q41" s="1">
-        <v>95.480230000000006</v>
+        <v>95.5458</v>
       </c>
       <c r="R41" s="1">
-        <v>95.5458</v>
+        <v>95.575779999999995</v>
       </c>
       <c r="S41" s="1">
-        <v>95.575779999999995</v>
-      </c>
-      <c r="T41" s="1">
         <v>95.544399999999996</v>
       </c>
-      <c r="U41">
+      <c r="T41">
         <f t="shared" si="3"/>
         <v>95.545099999999991</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U41" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z41" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>63.712690000000002</v>
       </c>
@@ -3519,27 +3714,31 @@
         <f t="shared" si="2"/>
         <v>96.62612</v>
       </c>
-      <c r="P42" t="s">
-        <v>45</v>
+      <c r="P42" s="1">
+        <v>93.642240000000001</v>
       </c>
       <c r="Q42" s="1">
-        <v>93.642240000000001</v>
+        <v>93.785920000000004</v>
       </c>
       <c r="R42" s="1">
-        <v>93.785920000000004</v>
+        <v>93.75</v>
       </c>
       <c r="S42" s="1">
-        <v>93.75</v>
-      </c>
-      <c r="T42" s="1">
         <v>93.714079999999996</v>
       </c>
-      <c r="U42">
+      <c r="T42">
         <f t="shared" si="3"/>
         <v>93.732039999999998</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U42" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z42" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>71.732640000000004</v>
       </c>
@@ -3588,27 +3787,31 @@
         <f t="shared" si="2"/>
         <v>97.582480000000004</v>
       </c>
-      <c r="P43" t="s">
-        <v>46</v>
+      <c r="P43" s="1">
+        <v>94.370260000000002</v>
       </c>
       <c r="Q43" s="1">
-        <v>94.370260000000002</v>
+        <v>94.62482</v>
       </c>
       <c r="R43" s="1">
-        <v>94.62482</v>
+        <v>94.588740000000001</v>
       </c>
       <c r="S43" s="1">
-        <v>94.588740000000001</v>
-      </c>
-      <c r="T43" s="1">
         <v>94.552670000000006</v>
       </c>
-      <c r="U43">
+      <c r="T43">
         <f t="shared" si="3"/>
         <v>94.570705000000004</v>
       </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U43" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z43" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>63.043880000000001</v>
       </c>
@@ -3657,27 +3860,31 @@
         <f t="shared" si="2"/>
         <v>96.80274</v>
       </c>
-      <c r="P44" t="s">
-        <v>47</v>
+      <c r="P44" s="1">
+        <v>93.761759999999995</v>
       </c>
       <c r="Q44" s="1">
-        <v>93.761759999999995</v>
+        <v>93.981189999999998</v>
       </c>
       <c r="R44" s="1">
-        <v>93.981189999999998</v>
+        <v>93.949839999999995</v>
       </c>
       <c r="S44" s="1">
-        <v>93.949839999999995</v>
-      </c>
-      <c r="T44" s="1">
         <v>93.918499999999995</v>
       </c>
-      <c r="U44">
+      <c r="T44">
         <f t="shared" si="3"/>
         <v>93.934169999999995</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U44" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z44" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>66.722719999999995</v>
       </c>
@@ -3726,27 +3933,31 @@
         <f t="shared" si="2"/>
         <v>97.147745</v>
       </c>
-      <c r="P45" t="s">
-        <v>48</v>
+      <c r="P45" s="1">
+        <v>94.370069999999998</v>
       </c>
       <c r="Q45" s="1">
-        <v>94.370069999999998</v>
+        <v>94.845359999999999</v>
       </c>
       <c r="R45" s="1">
-        <v>94.845359999999999</v>
+        <v>94.543580000000006</v>
       </c>
       <c r="S45" s="1">
-        <v>94.543580000000006</v>
-      </c>
-      <c r="T45" s="1">
         <v>94.509270000000001</v>
       </c>
-      <c r="U45">
+      <c r="T45">
         <f t="shared" si="3"/>
         <v>94.526425000000003</v>
       </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U45" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z45" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>68.341430000000003</v>
       </c>
@@ -3795,27 +4006,31 @@
         <f t="shared" si="2"/>
         <v>97.348915000000005</v>
       </c>
-      <c r="P46" t="s">
-        <v>49</v>
+      <c r="P46" s="1">
+        <v>93.231440000000006</v>
       </c>
       <c r="Q46" s="1">
-        <v>93.231440000000006</v>
+        <v>93.415790000000001</v>
       </c>
       <c r="R46" s="1">
-        <v>93.415790000000001</v>
+        <v>93.376999999999995</v>
       </c>
       <c r="S46" s="1">
-        <v>93.376999999999995</v>
-      </c>
-      <c r="T46" s="1">
         <v>93.340609999999998</v>
       </c>
-      <c r="U46">
+      <c r="T46">
         <f t="shared" si="3"/>
         <v>93.35880499999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U46" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z46" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>70.05977</v>
       </c>
@@ -3864,27 +4079,31 @@
         <f t="shared" si="2"/>
         <v>97.829810000000009</v>
       </c>
-      <c r="P47" t="s">
-        <v>50</v>
+      <c r="P47" s="1">
+        <v>95.986419999999995</v>
       </c>
       <c r="Q47" s="1">
-        <v>95.986419999999995</v>
+        <v>96.141980000000004</v>
       </c>
       <c r="R47" s="1">
-        <v>96.141980000000004</v>
+        <v>96.171660000000003</v>
       </c>
       <c r="S47" s="1">
-        <v>96.171660000000003</v>
-      </c>
-      <c r="T47" s="1">
         <v>96.140780000000007</v>
       </c>
-      <c r="U47">
+      <c r="T47">
         <f t="shared" si="3"/>
         <v>96.141379999999998</v>
       </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U47" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z47" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>61.195140000000002</v>
       </c>
@@ -3933,11 +4152,15 @@
         <f t="shared" si="2"/>
         <v>96.716160000000002</v>
       </c>
-      <c r="P48" t="s">
+      <c r="U48" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z48" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>70.070949999999996</v>
       </c>
@@ -3986,11 +4209,15 @@
         <f t="shared" si="2"/>
         <v>97.579724999999996</v>
       </c>
-      <c r="P49" t="s">
+      <c r="U49" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z49" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>71.882000000000005</v>
       </c>
@@ -4039,11 +4266,15 @@
         <f t="shared" si="2"/>
         <v>98.00739999999999</v>
       </c>
-      <c r="P50" t="s">
+      <c r="U50" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z50" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>66.38655</v>
       </c>
@@ -4092,27 +4323,31 @@
         <f t="shared" si="2"/>
         <v>97.402969999999996</v>
       </c>
-      <c r="P51" t="s">
-        <v>54</v>
+      <c r="P51" s="1">
+        <v>95.37688</v>
       </c>
       <c r="Q51" s="1">
-        <v>95.37688</v>
+        <v>95.448459999999997</v>
       </c>
       <c r="R51" s="1">
-        <v>95.448459999999997</v>
+        <v>95.480419999999995</v>
       </c>
       <c r="S51" s="1">
-        <v>95.480419999999995</v>
-      </c>
-      <c r="T51" s="1">
         <v>95.512389999999996</v>
       </c>
-      <c r="U51">
+      <c r="T51">
         <f t="shared" si="3"/>
         <v>95.464439999999996</v>
       </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U51" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z51" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>66.479929999999996</v>
       </c>
@@ -4161,27 +4396,31 @@
         <f t="shared" si="2"/>
         <v>97.582480000000004</v>
       </c>
-      <c r="P52" t="s">
-        <v>55</v>
+      <c r="P52" s="1">
+        <v>95.985399999999998</v>
       </c>
       <c r="Q52" s="1">
-        <v>95.985399999999998</v>
+        <v>96.13982</v>
       </c>
       <c r="R52" s="1">
-        <v>96.13982</v>
+        <v>96.108239999999995</v>
       </c>
       <c r="S52" s="1">
-        <v>96.108239999999995</v>
-      </c>
-      <c r="T52" s="1">
         <v>96.077839999999995</v>
       </c>
-      <c r="U52">
+      <c r="T52">
         <f t="shared" si="3"/>
         <v>96.093040000000002</v>
       </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U52" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z52" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>58.868560000000002</v>
       </c>
@@ -4230,27 +4469,31 @@
         <f t="shared" si="2"/>
         <v>96.182985000000002</v>
       </c>
-      <c r="P53" t="s">
-        <v>56</v>
+      <c r="P53" s="1">
+        <v>91.725499999999997</v>
       </c>
       <c r="Q53" s="1">
-        <v>91.725499999999997</v>
+        <v>91.866699999999994</v>
       </c>
       <c r="R53" s="1">
-        <v>91.866699999999994</v>
+        <v>91.730170000000001</v>
       </c>
       <c r="S53" s="1">
-        <v>91.730170000000001</v>
-      </c>
-      <c r="T53" s="1">
         <v>91.756069999999994</v>
       </c>
-      <c r="U53">
+      <c r="T53">
         <f t="shared" si="3"/>
         <v>91.743120000000005</v>
       </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U53" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z53" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>69.237949999999998</v>
       </c>
@@ -4299,27 +4542,31 @@
         <f t="shared" si="2"/>
         <v>97.551254999999998</v>
       </c>
-      <c r="P54" t="s">
-        <v>57</v>
+      <c r="P54" s="1">
+        <v>95.804630000000003</v>
       </c>
       <c r="Q54" s="1">
-        <v>95.804630000000003</v>
+        <v>96.055099999999996</v>
       </c>
       <c r="R54" s="1">
-        <v>96.055099999999996</v>
+        <v>95.961179999999999</v>
       </c>
       <c r="S54" s="1">
         <v>95.961179999999999</v>
       </c>
-      <c r="T54" s="1">
-        <v>95.961179999999999</v>
-      </c>
-      <c r="U54">
+      <c r="T54">
         <f t="shared" si="3"/>
         <v>95.961179999999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U54" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z54" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>72.540599999999998</v>
       </c>
@@ -4368,27 +4615,31 @@
         <f t="shared" si="2"/>
         <v>97.951054999999997</v>
       </c>
-      <c r="P55" t="s">
-        <v>58</v>
+      <c r="P55" s="1">
+        <v>95.707620000000006</v>
       </c>
       <c r="Q55" s="1">
-        <v>95.707620000000006</v>
+        <v>95.89425</v>
       </c>
       <c r="R55" s="1">
-        <v>95.89425</v>
+        <v>95.771140000000003</v>
       </c>
       <c r="S55" s="1">
-        <v>95.771140000000003</v>
-      </c>
-      <c r="T55" s="1">
         <v>95.800929999999994</v>
       </c>
-      <c r="U55">
+      <c r="T55">
         <f t="shared" si="3"/>
         <v>95.786034999999998</v>
       </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U55" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z55" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>71.844660000000005</v>
       </c>
@@ -4437,27 +4688,31 @@
         <f t="shared" si="2"/>
         <v>97.807514999999995</v>
       </c>
-      <c r="P56" t="s">
-        <v>59</v>
+      <c r="P56" s="1">
+        <v>97.041979999999995</v>
       </c>
       <c r="Q56" s="1">
-        <v>97.041979999999995</v>
+        <v>97.138310000000004</v>
       </c>
       <c r="R56" s="1">
-        <v>97.138310000000004</v>
+        <v>97.106520000000003</v>
       </c>
       <c r="S56" s="1">
-        <v>97.106520000000003</v>
-      </c>
-      <c r="T56" s="1">
         <v>97.074719999999999</v>
       </c>
-      <c r="U56">
+      <c r="T56">
         <f t="shared" si="3"/>
         <v>97.090620000000001</v>
       </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U56" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z56" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>57.76699</v>
       </c>
@@ -4506,27 +4761,31 @@
         <f t="shared" si="2"/>
         <v>95.633434999999992</v>
       </c>
-      <c r="P57" t="s">
-        <v>60</v>
+      <c r="P57" s="1">
+        <v>93.600729999999999</v>
       </c>
       <c r="Q57" s="1">
-        <v>93.600729999999999</v>
+        <v>93.757649999999998</v>
       </c>
       <c r="R57" s="1">
-        <v>93.757649999999998</v>
+        <v>93.667789999999997</v>
       </c>
       <c r="S57" s="1">
-        <v>93.667789999999997</v>
-      </c>
-      <c r="T57" s="1">
         <v>93.637200000000007</v>
       </c>
-      <c r="U57">
+      <c r="T57">
         <f t="shared" si="3"/>
         <v>93.652495000000002</v>
       </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U57" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z57" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>69.592830000000006</v>
       </c>
@@ -4575,27 +4834,31 @@
         <f t="shared" si="2"/>
         <v>96.737259999999992</v>
       </c>
-      <c r="P58" t="s">
-        <v>61</v>
+      <c r="P58" s="1">
+        <v>95.148079999999993</v>
       </c>
       <c r="Q58" s="1">
-        <v>95.148079999999993</v>
+        <v>95.400130000000004</v>
       </c>
       <c r="R58" s="1">
-        <v>95.400130000000004</v>
+        <v>95.307090000000002</v>
       </c>
       <c r="S58" s="1">
-        <v>95.307090000000002</v>
-      </c>
-      <c r="T58" s="1">
         <v>95.275589999999994</v>
       </c>
-      <c r="U58">
+      <c r="T58">
         <f t="shared" si="3"/>
         <v>95.291339999999991</v>
       </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U58" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z58" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>70.577250000000006</v>
       </c>
@@ -4644,27 +4907,31 @@
         <f t="shared" si="2"/>
         <v>97.577654999999993</v>
       </c>
-      <c r="P59" t="s">
-        <v>62</v>
+      <c r="P59" s="1">
+        <v>94.931299999999993</v>
       </c>
       <c r="Q59" s="1">
-        <v>94.931299999999993</v>
+        <v>95.146519999999995</v>
       </c>
       <c r="R59" s="1">
-        <v>95.146519999999995</v>
+        <v>94.995419999999996</v>
       </c>
       <c r="S59" s="1">
-        <v>94.995419999999996</v>
-      </c>
-      <c r="T59" s="1">
         <v>95.024420000000006</v>
       </c>
-      <c r="U59">
+      <c r="T59">
         <f t="shared" si="3"/>
         <v>95.009919999999994</v>
       </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U59" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z59" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>65.782589999999999</v>
       </c>
@@ -4713,27 +4980,31 @@
         <f t="shared" si="2"/>
         <v>97.002569999999992</v>
       </c>
-      <c r="P60" t="s">
-        <v>63</v>
+      <c r="P60" s="1">
+        <v>94.749619999999993</v>
       </c>
       <c r="Q60" s="1">
-        <v>94.749619999999993</v>
+        <v>94.813469999999995</v>
       </c>
       <c r="R60" s="1">
-        <v>94.813469999999995</v>
+        <v>94.842230000000001</v>
       </c>
       <c r="S60" s="1">
-        <v>94.842230000000001</v>
-      </c>
-      <c r="T60" s="1">
         <v>94.811890000000005</v>
       </c>
-      <c r="U60">
+      <c r="T60">
         <f t="shared" si="3"/>
         <v>94.81268</v>
       </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U60" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z60" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>58.266390000000001</v>
       </c>
@@ -4782,27 +5053,31 @@
         <f t="shared" si="2"/>
         <v>96.476650000000006</v>
       </c>
-      <c r="P61" t="s">
-        <v>64</v>
+      <c r="P61" s="1">
+        <v>93.916589999999999</v>
       </c>
       <c r="Q61" s="1">
-        <v>93.916589999999999</v>
+        <v>93.953630000000004</v>
       </c>
       <c r="R61" s="1">
-        <v>93.953630000000004</v>
+        <v>93.983080000000001</v>
       </c>
       <c r="S61" s="1">
-        <v>93.983080000000001</v>
-      </c>
-      <c r="T61" s="1">
         <v>94.012540000000001</v>
       </c>
-      <c r="U61">
+      <c r="T61">
         <f t="shared" si="3"/>
         <v>93.968355000000003</v>
       </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U61" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z61" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>64.619119999999995</v>
       </c>
@@ -4851,27 +5126,31 @@
         <f t="shared" si="2"/>
         <v>97.317350000000005</v>
       </c>
-      <c r="P62" t="s">
-        <v>65</v>
+      <c r="P62" s="1">
+        <v>94.811040000000006</v>
       </c>
       <c r="Q62" s="1">
-        <v>94.811040000000006</v>
+        <v>95.10951</v>
       </c>
       <c r="R62" s="1">
-        <v>95.10951</v>
+        <v>94.962519999999998</v>
       </c>
       <c r="S62" s="1">
-        <v>94.962519999999998</v>
-      </c>
-      <c r="T62" s="1">
         <v>95.049499999999995</v>
       </c>
-      <c r="U62">
+      <c r="T62">
         <f t="shared" si="3"/>
         <v>95.006010000000003</v>
       </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U62" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z62" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>65.259619999999998</v>
       </c>
@@ -4920,27 +5199,31 @@
         <f t="shared" si="2"/>
         <v>97.261834999999991</v>
       </c>
-      <c r="P63" t="s">
-        <v>66</v>
+      <c r="P63" s="1">
+        <v>95.179580000000001</v>
       </c>
       <c r="Q63" s="1">
-        <v>95.179580000000001</v>
+        <v>95.400130000000004</v>
       </c>
       <c r="R63" s="1">
-        <v>95.400130000000004</v>
+        <v>95.368620000000007</v>
       </c>
       <c r="S63" s="1">
-        <v>95.368620000000007</v>
-      </c>
-      <c r="T63" s="1">
         <v>95.337109999999996</v>
       </c>
-      <c r="U63">
+      <c r="T63">
         <f t="shared" si="3"/>
         <v>95.352865000000008</v>
       </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U63" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z63" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62.460329999999999</v>
       </c>
@@ -4989,27 +5272,31 @@
         <f t="shared" si="2"/>
         <v>96.219340000000003</v>
       </c>
-      <c r="P64" t="s">
-        <v>67</v>
+      <c r="P64" s="1">
+        <v>95.980549999999994</v>
       </c>
       <c r="Q64" s="1">
-        <v>95.980549999999994</v>
+        <v>96.238650000000007</v>
       </c>
       <c r="R64" s="1">
-        <v>96.238650000000007</v>
+        <v>96.142629999999997</v>
       </c>
       <c r="S64" s="1">
-        <v>96.142629999999997</v>
-      </c>
-      <c r="T64" s="1">
         <v>96.110209999999995</v>
       </c>
-      <c r="U64">
+      <c r="T64">
         <f t="shared" si="3"/>
         <v>96.126419999999996</v>
       </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U64" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z64" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63.829790000000003</v>
       </c>
@@ -5058,27 +5345,31 @@
         <f t="shared" si="2"/>
         <v>97.834139999999991</v>
       </c>
-      <c r="P65" t="s">
-        <v>68</v>
+      <c r="P65" s="1">
+        <v>94.543109999999999</v>
       </c>
       <c r="Q65" s="1">
-        <v>94.543109999999999</v>
+        <v>94.803100000000001</v>
       </c>
       <c r="R65" s="1">
-        <v>94.803100000000001</v>
+        <v>94.769130000000004</v>
       </c>
       <c r="S65" s="1">
-        <v>94.769130000000004</v>
-      </c>
-      <c r="T65" s="1">
         <v>94.736840000000001</v>
       </c>
-      <c r="U65">
+      <c r="T65">
         <f t="shared" si="3"/>
         <v>94.752984999999995</v>
       </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U65" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z65" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>62.404330000000002</v>
       </c>
@@ -5127,27 +5418,31 @@
         <f t="shared" si="2"/>
         <v>97.434435000000008</v>
       </c>
-      <c r="P66" t="s">
-        <v>69</v>
+      <c r="P66" s="1">
+        <v>95.692030000000003</v>
       </c>
       <c r="Q66" s="1">
-        <v>95.692030000000003</v>
+        <v>95.846059999999994</v>
       </c>
       <c r="R66" s="1">
-        <v>95.846059999999994</v>
+        <v>95.875339999999994</v>
       </c>
       <c r="S66" s="1">
-        <v>95.875339999999994</v>
-      </c>
-      <c r="T66" s="1">
         <v>95.844790000000003</v>
       </c>
-      <c r="U66">
+      <c r="T66">
         <f t="shared" si="3"/>
         <v>95.845425000000006</v>
       </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U66" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z66" t="e">
+        <f t="shared" si="4"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>64.97945</v>
       </c>
@@ -5161,7 +5456,7 @@
         <v>64.968270000000004</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E107" si="4">MEDIAN($A67,$B67,$C67,$D67)</f>
+        <f t="shared" ref="E67:E107" si="5">MEDIAN($A67,$B67,$C67,$D67)</f>
         <v>64.973860000000002</v>
       </c>
       <c r="F67" s="1">
@@ -5177,7 +5472,7 @@
         <v>73.465199999999996</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J107" si="5">MEDIAN($F67,$G67,$H67,$I67)</f>
+        <f t="shared" ref="J67:J107" si="6">MEDIAN($F67,$G67,$H67,$I67)</f>
         <v>73.427875</v>
       </c>
       <c r="K67" s="1">
@@ -5193,14 +5488,18 @@
         <v>96.735399999999998</v>
       </c>
       <c r="O67">
-        <f t="shared" ref="O67:O107" si="6">MEDIAN($K67,$L67,$M67,$N67)</f>
+        <f t="shared" ref="O67:O107" si="7">MEDIAN($K67,$L67,$M67,$N67)</f>
         <v>96.821304999999995</v>
       </c>
-      <c r="P67" t="s">
+      <c r="U67" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z67" t="e">
+        <f t="shared" ref="Z67:Z107" si="8">MEDIAN($V67,$W67,$X67,$Y67)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>60.833019999999998</v>
       </c>
@@ -5214,7 +5513,7 @@
         <v>60.854959999999998</v>
       </c>
       <c r="E68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60.841965000000002</v>
       </c>
       <c r="F68" s="1">
@@ -5230,7 +5529,7 @@
         <v>72.905389999999997</v>
       </c>
       <c r="J68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72.839169999999996</v>
       </c>
       <c r="K68" s="1">
@@ -5246,30 +5545,34 @@
         <v>95.74776</v>
       </c>
       <c r="O68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>95.834535000000002</v>
       </c>
-      <c r="P68" t="s">
+      <c r="P68" s="1">
+        <v>94.003529999999998</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>94.210989999999995</v>
+      </c>
+      <c r="R68" s="1">
+        <v>94.124560000000002</v>
+      </c>
+      <c r="S68" s="1">
+        <v>94.181600000000003</v>
+      </c>
+      <c r="T68">
+        <f t="shared" ref="T68:T107" si="9">MEDIAN($P68,$Q68,$R68,$S68)</f>
+        <v>94.153080000000003</v>
+      </c>
+      <c r="U68" t="s">
         <v>71</v>
       </c>
-      <c r="Q68" s="1">
-        <v>94.003529999999998</v>
-      </c>
-      <c r="R68" s="1">
-        <v>94.210989999999995</v>
-      </c>
-      <c r="S68" s="1">
-        <v>94.124560000000002</v>
-      </c>
-      <c r="T68" s="1">
-        <v>94.181600000000003</v>
-      </c>
-      <c r="U68">
-        <f t="shared" ref="U67:U107" si="7">MEDIAN($Q68,$R68,$S68,$T68)</f>
-        <v>94.153080000000003</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z68" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>65.167069999999995</v>
       </c>
@@ -5283,7 +5586,7 @@
         <v>65.248230000000007</v>
       </c>
       <c r="E69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65.245384999999999</v>
       </c>
       <c r="F69" s="1">
@@ -5299,7 +5602,7 @@
         <v>69.408690000000007</v>
       </c>
       <c r="J69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>69.415935000000005</v>
       </c>
       <c r="K69" s="1">
@@ -5315,30 +5618,34 @@
         <v>96.70581</v>
       </c>
       <c r="O69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>96.791750000000008</v>
       </c>
-      <c r="P69" t="s">
+      <c r="P69" s="1">
+        <v>96.243840000000006</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>96.397779999999997</v>
+      </c>
+      <c r="R69" s="1">
+        <v>96.306560000000005</v>
+      </c>
+      <c r="S69" s="1">
+        <v>96.39667</v>
+      </c>
+      <c r="T69">
+        <f t="shared" si="9"/>
+        <v>96.35161500000001</v>
+      </c>
+      <c r="U69" t="s">
         <v>72</v>
       </c>
-      <c r="Q69" s="1">
-        <v>96.243840000000006</v>
-      </c>
-      <c r="R69" s="1">
-        <v>96.397779999999997</v>
-      </c>
-      <c r="S69" s="1">
-        <v>96.306560000000005</v>
-      </c>
-      <c r="T69" s="1">
-        <v>96.39667</v>
-      </c>
-      <c r="U69">
-        <f t="shared" si="7"/>
-        <v>96.35161500000001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z69" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69.990660000000005</v>
       </c>
@@ -5352,7 +5659,7 @@
         <v>69.944029999999998</v>
       </c>
       <c r="E70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>69.970150000000004</v>
       </c>
       <c r="F70" s="1">
@@ -5368,7 +5675,7 @@
         <v>69.179100000000005</v>
       </c>
       <c r="J70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>69.194179999999989</v>
       </c>
       <c r="K70" s="1">
@@ -5384,30 +5691,34 @@
         <v>97.292680000000004</v>
       </c>
       <c r="O70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.378169999999997</v>
       </c>
-      <c r="P70" t="s">
+      <c r="P70" s="1">
+        <v>96.021379999999994</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>96.288600000000002</v>
+      </c>
+      <c r="R70" s="1">
+        <v>96.200649999999996</v>
+      </c>
+      <c r="S70" s="1">
+        <v>96.229219999999998</v>
+      </c>
+      <c r="T70">
+        <f t="shared" si="9"/>
+        <v>96.214934999999997</v>
+      </c>
+      <c r="U70" t="s">
         <v>73</v>
       </c>
-      <c r="Q70" s="1">
-        <v>96.021379999999994</v>
-      </c>
-      <c r="R70" s="1">
-        <v>96.288600000000002</v>
-      </c>
-      <c r="S70" s="1">
-        <v>96.200649999999996</v>
-      </c>
-      <c r="T70" s="1">
-        <v>96.229219999999998</v>
-      </c>
-      <c r="U70">
-        <f t="shared" si="7"/>
-        <v>96.214934999999997</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z70" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>68.861940000000004</v>
       </c>
@@ -5421,7 +5732,7 @@
         <v>68.973879999999994</v>
       </c>
       <c r="E71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68.957475000000002</v>
       </c>
       <c r="F71" s="1">
@@ -5437,7 +5748,7 @@
         <v>70.634330000000006</v>
       </c>
       <c r="J71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>70.614575000000002</v>
       </c>
       <c r="K71" s="1">
@@ -5453,30 +5764,34 @@
         <v>94.151120000000006</v>
       </c>
       <c r="O71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>94.261775</v>
       </c>
-      <c r="P71" t="s">
+      <c r="P71" s="1">
+        <v>94.223320000000001</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>94.368179999999995</v>
+      </c>
+      <c r="R71" s="1">
+        <v>94.295770000000005</v>
+      </c>
+      <c r="S71" s="1">
+        <v>94.227379999999997</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="9"/>
+        <v>94.261574999999993</v>
+      </c>
+      <c r="U71" t="s">
         <v>74</v>
       </c>
-      <c r="Q71" s="1">
-        <v>94.223320000000001</v>
-      </c>
-      <c r="R71" s="1">
-        <v>94.368179999999995</v>
-      </c>
-      <c r="S71" s="1">
-        <v>94.295770000000005</v>
-      </c>
-      <c r="T71" s="1">
-        <v>94.227379999999997</v>
-      </c>
-      <c r="U71">
-        <f t="shared" si="7"/>
-        <v>94.261574999999993</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z71" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>80.096999999999994</v>
       </c>
@@ -5490,7 +5805,7 @@
         <v>80.175309999999996</v>
       </c>
       <c r="E72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80.177154999999999</v>
       </c>
       <c r="F72" s="1">
@@ -5506,7 +5821,7 @@
         <v>73.292270000000002</v>
       </c>
       <c r="J72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>73.193475000000007</v>
       </c>
       <c r="K72" s="1">
@@ -5522,30 +5837,34 @@
         <v>96.341080000000005</v>
       </c>
       <c r="O72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>96.452434999999994</v>
       </c>
-      <c r="P72" t="s">
-        <v>75</v>
+      <c r="P72" s="1">
+        <v>96.832059999999998</v>
       </c>
       <c r="Q72" s="1">
-        <v>96.832059999999998</v>
+        <v>97.1374</v>
       </c>
       <c r="R72" s="1">
-        <v>97.1374</v>
+        <v>97.022900000000007</v>
       </c>
       <c r="S72" s="1">
         <v>97.022900000000007</v>
       </c>
-      <c r="T72" s="1">
+      <c r="T72">
+        <f t="shared" si="9"/>
         <v>97.022900000000007</v>
       </c>
-      <c r="U72">
-        <f t="shared" si="7"/>
-        <v>97.022900000000007</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U72" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z72" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>73.441580000000002</v>
       </c>
@@ -5559,7 +5878,7 @@
         <v>73.521180000000001</v>
       </c>
       <c r="E73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>73.500609999999995</v>
       </c>
       <c r="F73" s="1">
@@ -5575,7 +5894,7 @@
         <v>62.698259999999998</v>
       </c>
       <c r="J73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62.684200000000004</v>
       </c>
       <c r="K73" s="1">
@@ -5591,30 +5910,34 @@
         <v>97.610240000000005</v>
       </c>
       <c r="O73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.695589999999996</v>
       </c>
-      <c r="P73" t="s">
+      <c r="P73" s="1">
+        <v>96.867009999999993</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>97.090789999999998</v>
+      </c>
+      <c r="R73" s="1">
+        <v>97.058819999999997</v>
+      </c>
+      <c r="S73" s="1">
+        <v>97.026849999999996</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="9"/>
+        <v>97.042834999999997</v>
+      </c>
+      <c r="U73" t="s">
         <v>76</v>
       </c>
-      <c r="Q73" s="1">
-        <v>96.867009999999993</v>
-      </c>
-      <c r="R73" s="1">
-        <v>97.090789999999998</v>
-      </c>
-      <c r="S73" s="1">
-        <v>97.058819999999997</v>
-      </c>
-      <c r="T73" s="1">
-        <v>97.026849999999996</v>
-      </c>
-      <c r="U73">
-        <f t="shared" si="7"/>
-        <v>97.042834999999997</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z73" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>71.567350000000005</v>
       </c>
@@ -5628,7 +5951,7 @@
         <v>71.487219999999994</v>
       </c>
       <c r="E74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>71.505879999999991</v>
       </c>
       <c r="F74" s="1">
@@ -5644,7 +5967,7 @@
         <v>69.440299999999993</v>
       </c>
       <c r="J74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>69.42372499999999</v>
       </c>
       <c r="K74" s="1">
@@ -5660,30 +5983,34 @@
         <v>97.37518</v>
       </c>
       <c r="O74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.460769999999997</v>
       </c>
-      <c r="P74" t="s">
+      <c r="P74" s="1">
+        <v>96.363640000000004</v>
+      </c>
+      <c r="Q74" s="1">
+        <v>96.523129999999995</v>
+      </c>
+      <c r="R74" s="1">
+        <v>96.491230000000002</v>
+      </c>
+      <c r="S74" s="1">
+        <v>96.459329999999994</v>
+      </c>
+      <c r="T74">
+        <f t="shared" si="9"/>
+        <v>96.475279999999998</v>
+      </c>
+      <c r="U74" t="s">
         <v>77</v>
       </c>
-      <c r="Q74" s="1">
-        <v>96.363640000000004</v>
-      </c>
-      <c r="R74" s="1">
-        <v>96.523129999999995</v>
-      </c>
-      <c r="S74" s="1">
-        <v>96.491230000000002</v>
-      </c>
-      <c r="T74" s="1">
-        <v>96.459329999999994</v>
-      </c>
-      <c r="U74">
-        <f t="shared" si="7"/>
-        <v>96.475279999999998</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z74" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>76.712069999999997</v>
       </c>
@@ -5697,7 +6024,7 @@
         <v>76.824029999999993</v>
       </c>
       <c r="E75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>76.802539999999993</v>
       </c>
       <c r="F75" s="1">
@@ -5713,7 +6040,7 @@
         <v>64.893619999999999</v>
       </c>
       <c r="J75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.890839999999997</v>
       </c>
       <c r="K75" s="1">
@@ -5729,30 +6056,34 @@
         <v>98.322909999999993</v>
       </c>
       <c r="O75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>98.408189999999991</v>
       </c>
-      <c r="P75" t="s">
+      <c r="P75" s="1">
+        <v>96.858969999999999</v>
+      </c>
+      <c r="Q75" s="1">
+        <v>97.051280000000006</v>
+      </c>
+      <c r="R75" s="1">
+        <v>96.956100000000006</v>
+      </c>
+      <c r="S75" s="1">
+        <v>96.924059999999997</v>
+      </c>
+      <c r="T75">
+        <f t="shared" si="9"/>
+        <v>96.940079999999995</v>
+      </c>
+      <c r="U75" t="s">
         <v>78</v>
       </c>
-      <c r="Q75" s="1">
-        <v>96.858969999999999</v>
-      </c>
-      <c r="R75" s="1">
-        <v>97.051280000000006</v>
-      </c>
-      <c r="S75" s="1">
-        <v>96.956100000000006</v>
-      </c>
-      <c r="T75" s="1">
-        <v>96.924059999999997</v>
-      </c>
-      <c r="U75">
-        <f t="shared" si="7"/>
-        <v>96.940079999999995</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z75" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74.486750000000001</v>
       </c>
@@ -5766,7 +6097,7 @@
         <v>74.566149999999993</v>
       </c>
       <c r="E76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>74.545289999999994</v>
       </c>
       <c r="F76" s="1">
@@ -5782,7 +6113,7 @@
         <v>68.593810000000005</v>
       </c>
       <c r="J76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68.596734999999995</v>
       </c>
       <c r="K76" s="1">
@@ -5798,30 +6129,34 @@
         <v>97.610240000000005</v>
       </c>
       <c r="O76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.695589999999996</v>
       </c>
-      <c r="P76" t="s">
+      <c r="P76" s="1">
+        <v>96.852689999999996</v>
+      </c>
+      <c r="Q76" s="1">
+        <v>97.080770000000001</v>
+      </c>
+      <c r="R76" s="1">
+        <v>96.983459999999994</v>
+      </c>
+      <c r="S76" s="1">
+        <v>96.95102</v>
+      </c>
+      <c r="T76">
+        <f t="shared" si="9"/>
+        <v>96.967240000000004</v>
+      </c>
+      <c r="U76" t="s">
         <v>79</v>
       </c>
-      <c r="Q76" s="1">
-        <v>96.852689999999996</v>
-      </c>
-      <c r="R76" s="1">
-        <v>97.080770000000001</v>
-      </c>
-      <c r="S76" s="1">
-        <v>96.983459999999994</v>
-      </c>
-      <c r="T76" s="1">
-        <v>96.95102</v>
-      </c>
-      <c r="U76">
-        <f t="shared" si="7"/>
-        <v>96.967240000000004</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z76" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>73.282300000000006</v>
       </c>
@@ -5835,7 +6170,7 @@
         <v>73.264930000000007</v>
       </c>
       <c r="E77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>73.273615000000007</v>
       </c>
       <c r="F77" s="1">
@@ -5851,7 +6186,7 @@
         <v>62.493000000000002</v>
       </c>
       <c r="J77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62.497664999999998</v>
       </c>
       <c r="K77" s="1">
@@ -5867,30 +6202,34 @@
         <v>97.694280000000006</v>
       </c>
       <c r="O77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.779674999999997</v>
       </c>
-      <c r="P77" t="s">
+      <c r="P77" s="1">
+        <v>95.219759999999994</v>
+      </c>
+      <c r="Q77" s="1">
+        <v>95.539150000000006</v>
+      </c>
+      <c r="R77" s="1">
+        <v>95.444339999999997</v>
+      </c>
+      <c r="S77" s="1">
+        <v>95.412260000000003</v>
+      </c>
+      <c r="T77">
+        <f t="shared" si="9"/>
+        <v>95.428300000000007</v>
+      </c>
+      <c r="U77" t="s">
         <v>80</v>
       </c>
-      <c r="Q77" s="1">
-        <v>95.219759999999994</v>
-      </c>
-      <c r="R77" s="1">
-        <v>95.539150000000006</v>
-      </c>
-      <c r="S77" s="1">
-        <v>95.444339999999997</v>
-      </c>
-      <c r="T77" s="1">
-        <v>95.412260000000003</v>
-      </c>
-      <c r="U77">
-        <f t="shared" si="7"/>
-        <v>95.428300000000007</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z77" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>65.901030000000006</v>
       </c>
@@ -5904,7 +6243,7 @@
         <v>65.920119999999997</v>
       </c>
       <c r="E78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65.917149999999992</v>
       </c>
       <c r="F78" s="1">
@@ -5920,7 +6259,7 @@
         <v>65.976110000000006</v>
       </c>
       <c r="J78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65.957650000000001</v>
       </c>
       <c r="K78" s="1">
@@ -5936,30 +6275,34 @@
         <v>96.822220000000002</v>
       </c>
       <c r="O78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>96.908100000000005</v>
       </c>
-      <c r="P78" t="s">
+      <c r="P78" s="1">
+        <v>96.922070000000005</v>
+      </c>
+      <c r="Q78" s="1">
+        <v>97.119479999999996</v>
+      </c>
+      <c r="R78" s="1">
+        <v>97.021280000000004</v>
+      </c>
+      <c r="S78" s="1">
+        <v>96.98854</v>
+      </c>
+      <c r="T78">
+        <f t="shared" si="9"/>
+        <v>97.004909999999995</v>
+      </c>
+      <c r="U78" t="s">
         <v>81</v>
       </c>
-      <c r="Q78" s="1">
-        <v>96.922070000000005</v>
-      </c>
-      <c r="R78" s="1">
-        <v>97.119479999999996</v>
-      </c>
-      <c r="S78" s="1">
-        <v>97.021280000000004</v>
-      </c>
-      <c r="T78" s="1">
-        <v>96.98854</v>
-      </c>
-      <c r="U78">
-        <f t="shared" si="7"/>
-        <v>97.004909999999995</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z78" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>71.980590000000007</v>
       </c>
@@ -5973,7 +6316,7 @@
         <v>72.092590000000001</v>
       </c>
       <c r="E79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>72.056370000000001</v>
       </c>
       <c r="F79" s="1">
@@ -5989,7 +6332,7 @@
         <v>62.334269999999997</v>
       </c>
       <c r="J79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62.281765</v>
       </c>
       <c r="K79" s="1">
@@ -6005,30 +6348,34 @@
         <v>97.177070000000001</v>
       </c>
       <c r="O79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.262619999999998</v>
       </c>
-      <c r="P79" t="s">
-        <v>82</v>
+      <c r="P79" s="1">
+        <v>97.001260000000002</v>
       </c>
       <c r="Q79" s="1">
-        <v>97.001260000000002</v>
+        <v>97.128429999999994</v>
       </c>
       <c r="R79" s="1">
-        <v>97.128429999999994</v>
+        <v>97.096879999999999</v>
       </c>
       <c r="S79" s="1">
         <v>97.096879999999999</v>
       </c>
-      <c r="T79" s="1">
+      <c r="T79">
+        <f t="shared" si="9"/>
         <v>97.096879999999999</v>
       </c>
-      <c r="U79">
-        <f t="shared" si="7"/>
-        <v>97.096879999999999</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U79" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z79" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79.025940000000006</v>
       </c>
@@ -6042,7 +6389,7 @@
         <v>79.137900000000002</v>
       </c>
       <c r="E80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>79.132464999999996</v>
       </c>
       <c r="F80" s="1">
@@ -6058,7 +6405,7 @@
         <v>62.978169999999999</v>
       </c>
       <c r="J80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62.983014999999995</v>
       </c>
       <c r="K80" s="1">
@@ -6074,30 +6421,34 @@
         <v>98.379760000000005</v>
       </c>
       <c r="O80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>98.465040000000002</v>
       </c>
-      <c r="P80" t="s">
-        <v>83</v>
+      <c r="P80" s="1">
+        <v>97.001260000000002</v>
       </c>
       <c r="Q80" s="1">
-        <v>97.001260000000002</v>
+        <v>97.128429999999994</v>
       </c>
       <c r="R80" s="1">
-        <v>97.128429999999994</v>
+        <v>97.096879999999999</v>
       </c>
       <c r="S80" s="1">
         <v>97.096879999999999</v>
       </c>
-      <c r="T80" s="1">
+      <c r="T80">
+        <f t="shared" si="9"/>
         <v>97.096879999999999</v>
       </c>
-      <c r="U80">
-        <f t="shared" si="7"/>
-        <v>97.096879999999999</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U80" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z80" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80.104519999999994</v>
       </c>
@@ -6111,7 +6462,7 @@
         <v>80.149249999999995</v>
       </c>
       <c r="E81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80.126884999999987</v>
       </c>
       <c r="F81" s="1">
@@ -6127,7 +6478,7 @@
         <v>64.994410000000002</v>
       </c>
       <c r="J81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65.043374999999997</v>
       </c>
       <c r="K81" s="1">
@@ -6143,30 +6494,34 @@
         <v>97.867500000000007</v>
       </c>
       <c r="O81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.952799999999996</v>
       </c>
-      <c r="P81" t="s">
+      <c r="P81" s="1">
+        <v>96.117459999999994</v>
+      </c>
+      <c r="Q81" s="1">
+        <v>96.348219999999998</v>
+      </c>
+      <c r="R81" s="1">
+        <v>96.217799999999997</v>
+      </c>
+      <c r="S81" s="1">
+        <v>96.185199999999995</v>
+      </c>
+      <c r="T81">
+        <f t="shared" si="9"/>
+        <v>96.201499999999996</v>
+      </c>
+      <c r="U81" t="s">
         <v>84</v>
       </c>
-      <c r="Q81" s="1">
-        <v>96.117459999999994</v>
-      </c>
-      <c r="R81" s="1">
-        <v>96.348219999999998</v>
-      </c>
-      <c r="S81" s="1">
-        <v>96.217799999999997</v>
-      </c>
-      <c r="T81" s="1">
-        <v>96.185199999999995</v>
-      </c>
-      <c r="U81">
-        <f t="shared" si="7"/>
-        <v>96.201499999999996</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z81" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>75.429419999999993</v>
       </c>
@@ -6180,7 +6535,7 @@
         <v>75.475920000000002</v>
       </c>
       <c r="E82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75.461839999999995</v>
       </c>
       <c r="F82" s="1">
@@ -6196,7 +6551,7 @@
         <v>69.011189999999999</v>
       </c>
       <c r="J82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>69.023409999999998</v>
       </c>
       <c r="K82" s="1">
@@ -6212,30 +6567,34 @@
         <v>97.369929999999997</v>
       </c>
       <c r="O82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.455685000000003</v>
       </c>
-      <c r="P82" t="s">
+      <c r="P82" s="1">
+        <v>97.023049999999998</v>
+      </c>
+      <c r="Q82" s="1">
+        <v>97.343149999999994</v>
+      </c>
+      <c r="R82" s="1">
+        <v>97.215109999999996</v>
+      </c>
+      <c r="S82" s="1">
+        <v>97.183099999999996</v>
+      </c>
+      <c r="T82">
+        <f t="shared" si="9"/>
+        <v>97.199105000000003</v>
+      </c>
+      <c r="U82" t="s">
         <v>85</v>
       </c>
-      <c r="Q82" s="1">
-        <v>97.023049999999998</v>
-      </c>
-      <c r="R82" s="1">
-        <v>97.343149999999994</v>
-      </c>
-      <c r="S82" s="1">
-        <v>97.215109999999996</v>
-      </c>
-      <c r="T82" s="1">
-        <v>97.183099999999996</v>
-      </c>
-      <c r="U82">
-        <f t="shared" si="7"/>
-        <v>97.199105000000003</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z82" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>74.192949999999996</v>
       </c>
@@ -6249,7 +6608,7 @@
         <v>74.272390000000001</v>
       </c>
       <c r="E83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>74.267859999999999</v>
       </c>
       <c r="F83" s="1">
@@ -6265,7 +6624,7 @@
         <v>68.134330000000006</v>
       </c>
       <c r="J83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68.153400000000005</v>
       </c>
       <c r="K83" s="1">
@@ -6281,30 +6640,34 @@
         <v>97.114289999999997</v>
       </c>
       <c r="O83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.2</v>
       </c>
-      <c r="P83" t="s">
+      <c r="P83" s="1">
+        <v>96.534019999999998</v>
+      </c>
+      <c r="Q83" s="1">
+        <v>96.726569999999995</v>
+      </c>
+      <c r="R83" s="1">
+        <v>96.694479999999999</v>
+      </c>
+      <c r="S83" s="1">
+        <v>96.662390000000002</v>
+      </c>
+      <c r="T83">
+        <f t="shared" si="9"/>
+        <v>96.678435000000007</v>
+      </c>
+      <c r="U83" t="s">
         <v>86</v>
       </c>
-      <c r="Q83" s="1">
-        <v>96.534019999999998</v>
-      </c>
-      <c r="R83" s="1">
-        <v>96.726569999999995</v>
-      </c>
-      <c r="S83" s="1">
-        <v>96.694479999999999</v>
-      </c>
-      <c r="T83" s="1">
-        <v>96.662390000000002</v>
-      </c>
-      <c r="U83">
-        <f t="shared" si="7"/>
-        <v>96.678435000000007</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z83" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>77.738380000000006</v>
       </c>
@@ -6318,7 +6681,7 @@
         <v>77.817160000000001</v>
       </c>
       <c r="E84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>77.811975000000004</v>
       </c>
       <c r="F84" s="1">
@@ -6334,7 +6697,7 @@
         <v>64.794780000000003</v>
       </c>
       <c r="J84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.856799999999993</v>
       </c>
       <c r="K84" s="1">
@@ -6350,30 +6713,34 @@
         <v>97.779039999999995</v>
       </c>
       <c r="O84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.864464999999996</v>
       </c>
-      <c r="P84" t="s">
+      <c r="P84" s="1">
+        <v>97.276899999999998</v>
+      </c>
+      <c r="Q84" s="1">
+        <v>97.506559999999993</v>
+      </c>
+      <c r="R84" s="1">
+        <v>97.473749999999995</v>
+      </c>
+      <c r="S84" s="1">
+        <v>97.440939999999998</v>
+      </c>
+      <c r="T84">
+        <f t="shared" si="9"/>
+        <v>97.457345000000004</v>
+      </c>
+      <c r="U84" t="s">
         <v>87</v>
       </c>
-      <c r="Q84" s="1">
-        <v>97.276899999999998</v>
-      </c>
-      <c r="R84" s="1">
-        <v>97.506559999999993</v>
-      </c>
-      <c r="S84" s="1">
-        <v>97.473749999999995</v>
-      </c>
-      <c r="T84" s="1">
-        <v>97.440939999999998</v>
-      </c>
-      <c r="U84">
-        <f t="shared" si="7"/>
-        <v>97.457345000000004</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z84" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>75.219260000000006</v>
       </c>
@@ -6403,7 +6770,7 @@
         <v>65.609260000000006</v>
       </c>
       <c r="J85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65.594104999999999</v>
       </c>
       <c r="K85" s="1">
@@ -6419,30 +6786,34 @@
         <v>97.694280000000006</v>
       </c>
       <c r="O85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.779674999999997</v>
       </c>
-      <c r="P85" t="s">
+      <c r="P85" s="1">
+        <v>96.509770000000003</v>
+      </c>
+      <c r="Q85" s="1">
+        <v>96.733909999999995</v>
+      </c>
+      <c r="R85" s="1">
+        <v>96.701890000000006</v>
+      </c>
+      <c r="S85" s="1">
+        <v>96.669870000000003</v>
+      </c>
+      <c r="T85">
+        <f t="shared" si="9"/>
+        <v>96.685879999999997</v>
+      </c>
+      <c r="U85" t="s">
         <v>88</v>
       </c>
-      <c r="Q85" s="1">
-        <v>96.509770000000003</v>
-      </c>
-      <c r="R85" s="1">
-        <v>96.733909999999995</v>
-      </c>
-      <c r="S85" s="1">
-        <v>96.701890000000006</v>
-      </c>
-      <c r="T85" s="1">
-        <v>96.669870000000003</v>
-      </c>
-      <c r="U85">
-        <f t="shared" si="7"/>
-        <v>96.685879999999997</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z85" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>72.798509999999993</v>
       </c>
@@ -6472,7 +6843,7 @@
         <v>72.137259999999998</v>
       </c>
       <c r="J86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>72.133134999999996</v>
       </c>
       <c r="K86" s="1">
@@ -6488,30 +6859,34 @@
         <v>96.950699999999998</v>
       </c>
       <c r="O86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.036195000000006</v>
       </c>
-      <c r="P86" t="s">
+      <c r="P86" s="1">
+        <v>96.898179999999996</v>
+      </c>
+      <c r="Q86" s="1">
+        <v>96.933959999999999</v>
+      </c>
+      <c r="R86" s="1">
+        <v>96.966629999999995</v>
+      </c>
+      <c r="S86" s="1">
+        <v>96.866579999999999</v>
+      </c>
+      <c r="T86">
+        <f t="shared" si="9"/>
+        <v>96.916069999999991</v>
+      </c>
+      <c r="U86" t="s">
         <v>89</v>
       </c>
-      <c r="Q86" s="1">
-        <v>96.898179999999996</v>
-      </c>
-      <c r="R86" s="1">
-        <v>96.933959999999999</v>
-      </c>
-      <c r="S86" s="1">
-        <v>96.966629999999995</v>
-      </c>
-      <c r="T86" s="1">
-        <v>96.866579999999999</v>
-      </c>
-      <c r="U86">
-        <f t="shared" si="7"/>
-        <v>96.916069999999991</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z86" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>77.410929999999993</v>
       </c>
@@ -6525,7 +6900,7 @@
         <v>77.555970000000002</v>
       </c>
       <c r="E87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>77.550829999999991</v>
       </c>
       <c r="F87" s="1">
@@ -6541,7 +6916,7 @@
         <v>62.327489999999997</v>
       </c>
       <c r="J87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>62.360079999999996</v>
       </c>
       <c r="K87" s="1">
@@ -6557,30 +6932,34 @@
         <v>98.210229999999996</v>
       </c>
       <c r="O87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>98.295455000000004</v>
       </c>
-      <c r="P87" t="s">
+      <c r="P87" s="1">
+        <v>96.972660000000005</v>
+      </c>
+      <c r="Q87" s="1">
+        <v>97.26473</v>
+      </c>
+      <c r="R87" s="1">
+        <v>97.167969999999997</v>
+      </c>
+      <c r="S87" s="1">
+        <v>97.135419999999996</v>
+      </c>
+      <c r="T87">
+        <f t="shared" si="9"/>
+        <v>97.151694999999989</v>
+      </c>
+      <c r="U87" t="s">
         <v>90</v>
       </c>
-      <c r="Q87" s="1">
-        <v>96.972660000000005</v>
-      </c>
-      <c r="R87" s="1">
-        <v>97.26473</v>
-      </c>
-      <c r="S87" s="1">
-        <v>97.167969999999997</v>
-      </c>
-      <c r="T87" s="1">
-        <v>97.135419999999996</v>
-      </c>
-      <c r="U87">
-        <f t="shared" si="7"/>
-        <v>97.151694999999989</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z87" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>73.35324</v>
       </c>
@@ -6594,7 +6973,7 @@
         <v>73.400480000000002</v>
       </c>
       <c r="E88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>73.396119999999996</v>
       </c>
       <c r="F88" s="1">
@@ -6610,7 +6989,7 @@
         <v>70.492720000000006</v>
       </c>
       <c r="J88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>70.412164999999987</v>
       </c>
       <c r="K88" s="1">
@@ -6626,30 +7005,34 @@
         <v>96.258989999999997</v>
       </c>
       <c r="O88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>96.345325000000003</v>
       </c>
-      <c r="P88" t="s">
+      <c r="P88" s="1">
+        <v>97.270160000000004</v>
+      </c>
+      <c r="Q88" s="1">
+        <v>97.521180000000001</v>
+      </c>
+      <c r="R88" s="1">
+        <v>97.489800000000002</v>
+      </c>
+      <c r="S88" s="1">
+        <v>97.458420000000004</v>
+      </c>
+      <c r="T88">
+        <f t="shared" si="9"/>
+        <v>97.474109999999996</v>
+      </c>
+      <c r="U88" t="s">
         <v>91</v>
       </c>
-      <c r="Q88" s="1">
-        <v>97.270160000000004</v>
-      </c>
-      <c r="R88" s="1">
-        <v>97.521180000000001</v>
-      </c>
-      <c r="S88" s="1">
-        <v>97.489800000000002</v>
-      </c>
-      <c r="T88" s="1">
-        <v>97.458420000000004</v>
-      </c>
-      <c r="U88">
-        <f t="shared" si="7"/>
-        <v>97.474109999999996</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z88" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>74.384330000000006</v>
       </c>
@@ -6663,7 +7046,7 @@
         <v>74.528829999999999</v>
       </c>
       <c r="E89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>74.507980000000003</v>
       </c>
       <c r="F89" s="1">
@@ -6679,7 +7062,7 @@
         <v>61.123550000000002</v>
       </c>
       <c r="J89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>61.127705000000006</v>
       </c>
       <c r="K89" s="1">
@@ -6695,30 +7078,34 @@
         <v>98.182329999999993</v>
       </c>
       <c r="O89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>98.267539999999997</v>
       </c>
-      <c r="P89" t="s">
+      <c r="P89" s="1">
+        <v>97.028139999999993</v>
+      </c>
+      <c r="Q89" s="1">
+        <v>97.31268</v>
+      </c>
+      <c r="R89" s="1">
+        <v>97.217830000000006</v>
+      </c>
+      <c r="S89" s="1">
+        <v>97.186220000000006</v>
+      </c>
+      <c r="T89">
+        <f t="shared" si="9"/>
+        <v>97.202025000000006</v>
+      </c>
+      <c r="U89" t="s">
         <v>92</v>
       </c>
-      <c r="Q89" s="1">
-        <v>97.028139999999993</v>
-      </c>
-      <c r="R89" s="1">
-        <v>97.31268</v>
-      </c>
-      <c r="S89" s="1">
-        <v>97.217830000000006</v>
-      </c>
-      <c r="T89" s="1">
-        <v>97.186220000000006</v>
-      </c>
-      <c r="U89">
-        <f t="shared" si="7"/>
-        <v>97.202025000000006</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z89" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>73.857060000000004</v>
       </c>
@@ -6732,7 +7119,7 @@
         <v>73.96902</v>
       </c>
       <c r="E90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>73.997010000000003</v>
       </c>
       <c r="F90" s="1">
@@ -6748,7 +7135,7 @@
         <v>63.537970000000001</v>
       </c>
       <c r="J90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63.543030000000002</v>
       </c>
       <c r="K90" s="1">
@@ -6764,30 +7151,34 @@
         <v>97.834760000000003</v>
       </c>
       <c r="O90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.920230000000004</v>
       </c>
-      <c r="P90" t="s">
+      <c r="P90" s="1">
+        <v>95.521000000000001</v>
+      </c>
+      <c r="Q90" s="1">
+        <v>95.800929999999994</v>
+      </c>
+      <c r="R90" s="1">
+        <v>95.769829999999999</v>
+      </c>
+      <c r="S90" s="1">
+        <v>95.738720000000001</v>
+      </c>
+      <c r="T90">
+        <f t="shared" si="9"/>
+        <v>95.754275000000007</v>
+      </c>
+      <c r="U90" t="s">
         <v>93</v>
       </c>
-      <c r="Q90" s="1">
-        <v>95.521000000000001</v>
-      </c>
-      <c r="R90" s="1">
-        <v>95.800929999999994</v>
-      </c>
-      <c r="S90" s="1">
-        <v>95.769829999999999</v>
-      </c>
-      <c r="T90" s="1">
-        <v>95.738720000000001</v>
-      </c>
-      <c r="U90">
-        <f t="shared" si="7"/>
-        <v>95.754275000000007</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z90" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>77.029300000000006</v>
       </c>
@@ -6801,7 +7192,7 @@
         <v>77.10821</v>
       </c>
       <c r="E91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>77.126865000000009</v>
       </c>
       <c r="F91" s="1">
@@ -6817,7 +7208,7 @@
         <v>65.378870000000006</v>
       </c>
       <c r="J91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65.345159999999993</v>
       </c>
       <c r="K91" s="1">
@@ -6833,30 +7224,34 @@
         <v>97.897130000000004</v>
       </c>
       <c r="O91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.982384999999994</v>
       </c>
-      <c r="P91" t="s">
+      <c r="P91" s="1">
+        <v>97.270960000000002</v>
+      </c>
+      <c r="Q91" s="1">
+        <v>97.498379999999997</v>
+      </c>
+      <c r="R91" s="1">
+        <v>97.465890000000002</v>
+      </c>
+      <c r="S91" s="1">
+        <v>97.433400000000006</v>
+      </c>
+      <c r="T91">
+        <f t="shared" si="9"/>
+        <v>97.449645000000004</v>
+      </c>
+      <c r="U91" t="s">
         <v>94</v>
       </c>
-      <c r="Q91" s="1">
-        <v>97.270960000000002</v>
-      </c>
-      <c r="R91" s="1">
-        <v>97.498379999999997</v>
-      </c>
-      <c r="S91" s="1">
-        <v>97.465890000000002</v>
-      </c>
-      <c r="T91" s="1">
-        <v>97.433400000000006</v>
-      </c>
-      <c r="U91">
-        <f t="shared" si="7"/>
-        <v>97.449645000000004</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z91" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>80.257509999999996</v>
       </c>
@@ -6870,7 +7265,7 @@
         <v>80.302180000000007</v>
       </c>
       <c r="E92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80.304020000000008</v>
       </c>
       <c r="F92" s="1">
@@ -6886,7 +7281,7 @@
         <v>59.484690000000001</v>
       </c>
       <c r="J92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59.462235</v>
       </c>
       <c r="K92" s="1">
@@ -6902,30 +7297,34 @@
         <v>98.381140000000002</v>
       </c>
       <c r="O92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>98.466345000000004</v>
       </c>
-      <c r="P92" t="s">
+      <c r="P92" s="1">
+        <v>96.706490000000002</v>
+      </c>
+      <c r="Q92" s="1">
+        <v>96.900229999999993</v>
+      </c>
+      <c r="R92" s="1">
+        <v>96.740880000000004</v>
+      </c>
+      <c r="S92" s="1">
+        <v>96.772109999999998</v>
+      </c>
+      <c r="T92">
+        <f t="shared" si="9"/>
+        <v>96.756495000000001</v>
+      </c>
+      <c r="U92" t="s">
         <v>95</v>
       </c>
-      <c r="Q92" s="1">
-        <v>96.706490000000002</v>
-      </c>
-      <c r="R92" s="1">
-        <v>96.900229999999993</v>
-      </c>
-      <c r="S92" s="1">
-        <v>96.740880000000004</v>
-      </c>
-      <c r="T92" s="1">
-        <v>96.772109999999998</v>
-      </c>
-      <c r="U92">
-        <f t="shared" si="7"/>
-        <v>96.756495000000001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z92" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>72.671270000000007</v>
       </c>
@@ -6939,7 +7338,7 @@
         <v>72.718789999999998</v>
       </c>
       <c r="E93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>72.698450000000008</v>
       </c>
       <c r="F93" s="1">
@@ -6955,7 +7354,7 @@
         <v>67.450540000000004</v>
       </c>
       <c r="J93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67.403469999999999</v>
       </c>
       <c r="K93" s="1">
@@ -6971,30 +7370,34 @@
         <v>97.261840000000007</v>
       </c>
       <c r="O93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.347405000000009</v>
       </c>
-      <c r="P93" t="s">
+      <c r="P93" s="1">
+        <v>96.641559999999998</v>
+      </c>
+      <c r="Q93" s="1">
+        <v>96.861270000000005</v>
+      </c>
+      <c r="R93" s="1">
+        <v>96.829880000000003</v>
+      </c>
+      <c r="S93" s="1">
+        <v>96.798490000000001</v>
+      </c>
+      <c r="T93">
+        <f t="shared" si="9"/>
+        <v>96.814185000000009</v>
+      </c>
+      <c r="U93" t="s">
         <v>96</v>
       </c>
-      <c r="Q93" s="1">
-        <v>96.641559999999998</v>
-      </c>
-      <c r="R93" s="1">
-        <v>96.861270000000005</v>
-      </c>
-      <c r="S93" s="1">
-        <v>96.829880000000003</v>
-      </c>
-      <c r="T93" s="1">
-        <v>96.798490000000001</v>
-      </c>
-      <c r="U93">
-        <f t="shared" si="7"/>
-        <v>96.814185000000009</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z93" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>73.553560000000004</v>
       </c>
@@ -7008,7 +7411,7 @@
         <v>73.600750000000005</v>
       </c>
       <c r="E94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>73.628735000000006</v>
       </c>
       <c r="F94" s="1">
@@ -7024,7 +7427,7 @@
         <v>65.348010000000002</v>
       </c>
       <c r="J94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65.338304999999991</v>
       </c>
       <c r="K94" s="1">
@@ -7040,30 +7443,34 @@
         <v>97.724040000000002</v>
       </c>
       <c r="O94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.809390000000008</v>
       </c>
-      <c r="P94" t="s">
-        <v>97</v>
+      <c r="P94" s="1">
+        <v>97.658000000000001</v>
       </c>
       <c r="Q94" s="1">
-        <v>97.658000000000001</v>
+        <v>97.818420000000003</v>
       </c>
       <c r="R94" s="1">
         <v>97.818420000000003</v>
       </c>
       <c r="S94" s="1">
-        <v>97.818420000000003</v>
-      </c>
-      <c r="T94" s="1">
         <v>97.786330000000007</v>
       </c>
-      <c r="U94">
-        <f t="shared" si="7"/>
+      <c r="T94">
+        <f t="shared" si="9"/>
         <v>97.802375000000012</v>
       </c>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U94" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z94" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>75.345280000000002</v>
       </c>
@@ -7077,7 +7484,7 @@
         <v>75.424520000000001</v>
       </c>
       <c r="E95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75.419775000000001</v>
       </c>
       <c r="F95" s="1">
@@ -7093,7 +7500,7 @@
         <v>63.780560000000001</v>
       </c>
       <c r="J95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63.799220000000005</v>
       </c>
       <c r="K95" s="1">
@@ -7109,30 +7516,34 @@
         <v>97.952219999999997</v>
       </c>
       <c r="O95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>98.037544999999994</v>
       </c>
-      <c r="P95" t="s">
+      <c r="P95" s="1">
+        <v>96.990970000000004</v>
+      </c>
+      <c r="Q95" s="1">
+        <v>97.192509999999999</v>
+      </c>
+      <c r="R95" s="1">
+        <v>97.058819999999997</v>
+      </c>
+      <c r="S95" s="1">
+        <v>97.025400000000005</v>
+      </c>
+      <c r="T95">
+        <f t="shared" si="9"/>
+        <v>97.042110000000008</v>
+      </c>
+      <c r="U95" t="s">
         <v>98</v>
       </c>
-      <c r="Q95" s="1">
-        <v>96.990970000000004</v>
-      </c>
-      <c r="R95" s="1">
-        <v>97.192509999999999</v>
-      </c>
-      <c r="S95" s="1">
-        <v>97.058819999999997</v>
-      </c>
-      <c r="T95" s="1">
-        <v>97.025400000000005</v>
-      </c>
-      <c r="U95">
-        <f t="shared" si="7"/>
-        <v>97.042110000000008</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z95" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>75.08399</v>
       </c>
@@ -7146,7 +7557,7 @@
         <v>75.195970000000003</v>
       </c>
       <c r="E96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75.191270000000003</v>
       </c>
       <c r="F96" s="1">
@@ -7162,7 +7573,7 @@
         <v>64.209739999999996</v>
       </c>
       <c r="J96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.176469999999995</v>
       </c>
       <c r="K96" s="1">
@@ -7178,30 +7589,34 @@
         <v>97.952219999999997</v>
       </c>
       <c r="O96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>98.037544999999994</v>
       </c>
-      <c r="P96" t="s">
+      <c r="P96" s="1">
+        <v>97.238860000000003</v>
+      </c>
+      <c r="Q96" s="1">
+        <v>97.668999999999997</v>
+      </c>
+      <c r="R96" s="1">
+        <v>97.438460000000006</v>
+      </c>
+      <c r="S96" s="1">
+        <v>97.405190000000005</v>
+      </c>
+      <c r="T96">
+        <f t="shared" si="9"/>
+        <v>97.421825000000013</v>
+      </c>
+      <c r="U96" t="s">
         <v>99</v>
       </c>
-      <c r="Q96" s="1">
-        <v>97.238860000000003</v>
-      </c>
-      <c r="R96" s="1">
-        <v>97.668999999999997</v>
-      </c>
-      <c r="S96" s="1">
-        <v>97.438460000000006</v>
-      </c>
-      <c r="T96" s="1">
-        <v>97.405190000000005</v>
-      </c>
-      <c r="U96">
-        <f t="shared" si="7"/>
-        <v>97.421825000000013</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z96" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>71.817840000000004</v>
       </c>
@@ -7215,7 +7630,7 @@
         <v>71.897739999999999</v>
       </c>
       <c r="E97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>71.877629999999996</v>
       </c>
       <c r="F97" s="1">
@@ -7231,7 +7646,7 @@
         <v>68.545829999999995</v>
       </c>
       <c r="J97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68.466724999999997</v>
       </c>
       <c r="K97" s="1">
@@ -7247,30 +7662,34 @@
         <v>97.665149999999997</v>
       </c>
       <c r="O97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.750569999999996</v>
       </c>
-      <c r="P97" t="s">
+      <c r="P97" s="1">
+        <v>96.424989999999994</v>
+      </c>
+      <c r="Q97" s="1">
+        <v>96.692279999999997</v>
+      </c>
+      <c r="R97" s="1">
+        <v>96.658869999999993</v>
+      </c>
+      <c r="S97" s="1">
+        <v>96.625460000000004</v>
+      </c>
+      <c r="T97">
+        <f t="shared" si="9"/>
+        <v>96.642165000000006</v>
+      </c>
+      <c r="U97" t="s">
         <v>100</v>
       </c>
-      <c r="Q97" s="1">
-        <v>96.424989999999994</v>
-      </c>
-      <c r="R97" s="1">
-        <v>96.692279999999997</v>
-      </c>
-      <c r="S97" s="1">
-        <v>96.658869999999993</v>
-      </c>
-      <c r="T97" s="1">
-        <v>96.625460000000004</v>
-      </c>
-      <c r="U97">
-        <f t="shared" si="7"/>
-        <v>96.642165000000006</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z97" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>69.859939999999995</v>
       </c>
@@ -7284,7 +7703,7 @@
         <v>69.876819999999995</v>
       </c>
       <c r="E98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>69.873109999999997</v>
       </c>
       <c r="F98" s="1">
@@ -7300,7 +7719,7 @@
         <v>64.028369999999995</v>
       </c>
       <c r="J98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.018294999999995</v>
       </c>
       <c r="K98" s="1">
@@ -7316,30 +7735,34 @@
         <v>97.438820000000007</v>
       </c>
       <c r="O98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.524185000000003</v>
       </c>
-      <c r="P98" t="s">
+      <c r="P98" s="1">
+        <v>97.679659999999998</v>
+      </c>
+      <c r="Q98" s="1">
+        <v>97.87303</v>
+      </c>
+      <c r="R98" s="1">
+        <v>97.777060000000006</v>
+      </c>
+      <c r="S98" s="1">
+        <v>97.74485</v>
+      </c>
+      <c r="T98">
+        <f t="shared" si="9"/>
+        <v>97.760954999999996</v>
+      </c>
+      <c r="U98" t="s">
         <v>101</v>
       </c>
-      <c r="Q98" s="1">
-        <v>97.679659999999998</v>
-      </c>
-      <c r="R98" s="1">
-        <v>97.87303</v>
-      </c>
-      <c r="S98" s="1">
-        <v>97.777060000000006</v>
-      </c>
-      <c r="T98" s="1">
-        <v>97.74485</v>
-      </c>
-      <c r="U98">
-        <f t="shared" si="7"/>
-        <v>97.760954999999996</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z98" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>75.587909999999994</v>
       </c>
@@ -7353,7 +7776,7 @@
         <v>75.667100000000005</v>
       </c>
       <c r="E99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75.662315000000007</v>
       </c>
       <c r="F99" s="1">
@@ -7369,7 +7792,7 @@
         <v>64.708079999999995</v>
       </c>
       <c r="J99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.705334999999991</v>
       </c>
       <c r="K99" s="1">
@@ -7385,30 +7808,34 @@
         <v>97.753770000000003</v>
       </c>
       <c r="O99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.839065000000005</v>
       </c>
-      <c r="P99" t="s">
+      <c r="P99" s="1">
+        <v>96.845219999999998</v>
+      </c>
+      <c r="Q99" s="1">
+        <v>97.010509999999996</v>
+      </c>
+      <c r="R99" s="1">
+        <v>96.97766</v>
+      </c>
+      <c r="S99" s="1">
+        <v>96.944810000000004</v>
+      </c>
+      <c r="T99">
+        <f t="shared" si="9"/>
+        <v>96.961235000000002</v>
+      </c>
+      <c r="U99" t="s">
         <v>102</v>
       </c>
-      <c r="Q99" s="1">
-        <v>96.845219999999998</v>
-      </c>
-      <c r="R99" s="1">
-        <v>97.010509999999996</v>
-      </c>
-      <c r="S99" s="1">
-        <v>96.97766</v>
-      </c>
-      <c r="T99" s="1">
-        <v>96.944810000000004</v>
-      </c>
-      <c r="U99">
-        <f t="shared" si="7"/>
-        <v>96.961235000000002</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z99" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>79.238950000000003</v>
       </c>
@@ -7422,7 +7849,7 @@
         <v>79.317419999999998</v>
       </c>
       <c r="E100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>79.336070000000007</v>
       </c>
       <c r="F100" s="1">
@@ -7438,7 +7865,7 @@
         <v>66.417910000000006</v>
       </c>
       <c r="J100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66.414850000000001</v>
       </c>
       <c r="K100" s="1">
@@ -7454,30 +7881,34 @@
         <v>98.096590000000006</v>
       </c>
       <c r="O100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>98.181820000000002</v>
       </c>
-      <c r="P100" t="s">
+      <c r="P100" s="1">
+        <v>96.184740000000005</v>
+      </c>
+      <c r="Q100" s="1">
+        <v>96.386750000000006</v>
+      </c>
+      <c r="R100" s="1">
+        <v>96.287629999999993</v>
+      </c>
+      <c r="S100" s="1">
+        <v>96.254180000000005</v>
+      </c>
+      <c r="T100">
+        <f t="shared" si="9"/>
+        <v>96.270904999999999</v>
+      </c>
+      <c r="U100" t="s">
         <v>103</v>
       </c>
-      <c r="Q100" s="1">
-        <v>96.184740000000005</v>
-      </c>
-      <c r="R100" s="1">
-        <v>96.386750000000006</v>
-      </c>
-      <c r="S100" s="1">
-        <v>96.287629999999993</v>
-      </c>
-      <c r="T100" s="1">
-        <v>96.254180000000005</v>
-      </c>
-      <c r="U100">
-        <f t="shared" si="7"/>
-        <v>96.270904999999999</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z100" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>76.194029999999998</v>
       </c>
@@ -7491,7 +7922,7 @@
         <v>76.273079999999993</v>
       </c>
       <c r="E101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>76.291734999999989</v>
       </c>
       <c r="F101" s="1">
@@ -7507,7 +7938,7 @@
         <v>64.638930000000002</v>
       </c>
       <c r="J101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>64.620845000000003</v>
       </c>
       <c r="K101" s="1">
@@ -7523,30 +7954,34 @@
         <v>97.982950000000002</v>
       </c>
       <c r="O101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>98.068179999999998</v>
       </c>
-      <c r="P101" t="s">
+      <c r="P101" s="1">
+        <v>96.854560000000006</v>
+      </c>
+      <c r="Q101" s="1">
+        <v>97.103710000000007</v>
+      </c>
+      <c r="R101" s="1">
+        <v>97.011210000000005</v>
+      </c>
+      <c r="S101" s="1">
+        <v>96.980069999999998</v>
+      </c>
+      <c r="T101">
+        <f t="shared" si="9"/>
+        <v>96.995640000000009</v>
+      </c>
+      <c r="U101" t="s">
         <v>104</v>
       </c>
-      <c r="Q101" s="1">
-        <v>96.854560000000006</v>
-      </c>
-      <c r="R101" s="1">
-        <v>97.103710000000007</v>
-      </c>
-      <c r="S101" s="1">
-        <v>97.011210000000005</v>
-      </c>
-      <c r="T101" s="1">
-        <v>96.980069999999998</v>
-      </c>
-      <c r="U101">
-        <f t="shared" si="7"/>
-        <v>96.995640000000009</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z101" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>75.331220000000002</v>
       </c>
@@ -7560,7 +7995,7 @@
         <v>75.410449999999997</v>
       </c>
       <c r="E102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>75.405709999999999</v>
       </c>
       <c r="F102" s="1">
@@ -7576,7 +8011,7 @@
         <v>65.64658</v>
       </c>
       <c r="J102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>65.628214999999997</v>
       </c>
       <c r="K102" s="1">
@@ -7592,30 +8027,34 @@
         <v>97.953379999999996</v>
       </c>
       <c r="O102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>98.038659999999993</v>
       </c>
-      <c r="P102" t="s">
+      <c r="P102" s="1">
+        <v>96.616659999999996</v>
+      </c>
+      <c r="Q102" s="1">
+        <v>96.840090000000004</v>
+      </c>
+      <c r="R102" s="1">
+        <v>96.745369999999994</v>
+      </c>
+      <c r="S102" s="1">
+        <v>96.713470000000001</v>
+      </c>
+      <c r="T102">
+        <f t="shared" si="9"/>
+        <v>96.729420000000005</v>
+      </c>
+      <c r="U102" t="s">
         <v>105</v>
       </c>
-      <c r="Q102" s="1">
-        <v>96.616659999999996</v>
-      </c>
-      <c r="R102" s="1">
-        <v>96.840090000000004</v>
-      </c>
-      <c r="S102" s="1">
-        <v>96.745369999999994</v>
-      </c>
-      <c r="T102" s="1">
-        <v>96.713470000000001</v>
-      </c>
-      <c r="U102">
-        <f t="shared" si="7"/>
-        <v>96.729420000000005</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z102" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>78.690049999999999</v>
       </c>
@@ -7629,7 +8068,7 @@
         <v>78.802019999999999</v>
       </c>
       <c r="E103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>78.796644999999998</v>
       </c>
       <c r="F103" s="1">
@@ -7645,7 +8084,7 @@
         <v>67.120729999999995</v>
       </c>
       <c r="J103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>67.101955000000004</v>
       </c>
       <c r="K103" s="1">
@@ -7661,30 +8100,34 @@
         <v>98.381140000000002</v>
       </c>
       <c r="O103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>98.466345000000004</v>
       </c>
-      <c r="P103" t="s">
+      <c r="P103" s="1">
+        <v>97.126999999999995</v>
+      </c>
+      <c r="Q103" s="1">
+        <v>97.388180000000006</v>
+      </c>
+      <c r="R103" s="1">
+        <v>97.355530000000002</v>
+      </c>
+      <c r="S103" s="1">
+        <v>97.322890000000001</v>
+      </c>
+      <c r="T103">
+        <f t="shared" si="9"/>
+        <v>97.339210000000008</v>
+      </c>
+      <c r="U103" t="s">
         <v>106</v>
       </c>
-      <c r="Q103" s="1">
-        <v>97.126999999999995</v>
-      </c>
-      <c r="R103" s="1">
-        <v>97.388180000000006</v>
-      </c>
-      <c r="S103" s="1">
-        <v>97.355530000000002</v>
-      </c>
-      <c r="T103" s="1">
-        <v>97.322890000000001</v>
-      </c>
-      <c r="U103">
-        <f t="shared" si="7"/>
-        <v>97.339210000000008</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z103" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>79.693920000000006</v>
       </c>
@@ -7698,7 +8141,7 @@
         <v>79.738810000000001</v>
       </c>
       <c r="E104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>79.750024999999994</v>
       </c>
       <c r="F104" s="1">
@@ -7714,7 +8157,7 @@
         <v>75.597009999999997</v>
       </c>
       <c r="J104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>75.618175000000008</v>
       </c>
       <c r="K104" s="1">
@@ -7730,30 +8173,34 @@
         <v>97.381159999999994</v>
       </c>
       <c r="O104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.466550000000012</v>
       </c>
-      <c r="P104" t="s">
+      <c r="P104" s="1">
+        <v>97.257649999999998</v>
+      </c>
+      <c r="Q104" s="1">
+        <v>97.640309999999999</v>
+      </c>
+      <c r="R104" s="1">
+        <v>97.544640000000001</v>
+      </c>
+      <c r="S104" s="1">
+        <v>97.480869999999996</v>
+      </c>
+      <c r="T104">
+        <f t="shared" si="9"/>
+        <v>97.512754999999999</v>
+      </c>
+      <c r="U104" t="s">
         <v>107</v>
       </c>
-      <c r="Q104" s="1">
-        <v>97.257649999999998</v>
-      </c>
-      <c r="R104" s="1">
-        <v>97.640309999999999</v>
-      </c>
-      <c r="S104" s="1">
-        <v>97.544640000000001</v>
-      </c>
-      <c r="T104" s="1">
-        <v>97.480869999999996</v>
-      </c>
-      <c r="U104">
-        <f t="shared" si="7"/>
-        <v>97.512754999999999</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z104" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>77.448239999999998</v>
       </c>
@@ -7767,7 +8214,7 @@
         <v>77.493939999999995</v>
       </c>
       <c r="E105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>77.505359999999996</v>
       </c>
       <c r="F105" s="1">
@@ -7783,7 +8230,7 @@
         <v>78.705950000000001</v>
       </c>
       <c r="J105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>78.761300000000006</v>
       </c>
       <c r="K105" s="1">
@@ -7799,30 +8246,34 @@
         <v>97.07517</v>
       </c>
       <c r="O105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>97.162914999999998</v>
       </c>
-      <c r="P105" t="s">
+      <c r="P105" s="1">
+        <v>96.858800000000002</v>
+      </c>
+      <c r="Q105" s="1">
+        <v>97.041780000000003</v>
+      </c>
+      <c r="R105" s="1">
+        <v>96.980789999999999</v>
+      </c>
+      <c r="S105" s="1">
+        <v>96.950289999999995</v>
+      </c>
+      <c r="T105">
+        <f t="shared" si="9"/>
+        <v>96.965540000000004</v>
+      </c>
+      <c r="U105" t="s">
         <v>108</v>
       </c>
-      <c r="Q105" s="1">
-        <v>96.858800000000002</v>
-      </c>
-      <c r="R105" s="1">
-        <v>97.041780000000003</v>
-      </c>
-      <c r="S105" s="1">
-        <v>96.980789999999999</v>
-      </c>
-      <c r="T105" s="1">
-        <v>96.950289999999995</v>
-      </c>
-      <c r="U105">
-        <f t="shared" si="7"/>
-        <v>96.965540000000004</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z105" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>85.879499999999993</v>
       </c>
@@ -7836,7 +8287,7 @@
         <v>85.956729999999993</v>
       </c>
       <c r="E106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>85.967365000000001</v>
       </c>
       <c r="F106" s="1">
@@ -7852,7 +8303,7 @@
         <v>78.101100000000002</v>
       </c>
       <c r="J106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>78.095860000000002</v>
       </c>
       <c r="K106" s="1">
@@ -7868,30 +8319,34 @@
         <v>98.153409999999994</v>
       </c>
       <c r="O106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>98.238635000000002</v>
       </c>
-      <c r="P106" t="s">
+      <c r="P106" s="1">
+        <v>95.958650000000006</v>
+      </c>
+      <c r="Q106" s="1">
+        <v>96.240600000000001</v>
+      </c>
+      <c r="R106" s="1">
+        <v>96.209270000000004</v>
+      </c>
+      <c r="S106" s="1">
+        <v>96.177940000000007</v>
+      </c>
+      <c r="T106">
+        <f t="shared" si="9"/>
+        <v>96.193605000000005</v>
+      </c>
+      <c r="U106" t="s">
         <v>109</v>
       </c>
-      <c r="Q106" s="1">
-        <v>95.958650000000006</v>
-      </c>
-      <c r="R106" s="1">
-        <v>96.240600000000001</v>
-      </c>
-      <c r="S106" s="1">
-        <v>96.209270000000004</v>
-      </c>
-      <c r="T106" s="1">
-        <v>96.177940000000007</v>
-      </c>
-      <c r="U106">
-        <f t="shared" si="7"/>
-        <v>96.193605000000005</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="Z106" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>86.439099999999996</v>
       </c>
@@ -7905,7 +8360,7 @@
         <v>86.516229999999993</v>
       </c>
       <c r="E107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>86.526809999999998</v>
       </c>
       <c r="F107" s="1">
@@ -7921,7 +8376,7 @@
         <v>78.959149999999994</v>
       </c>
       <c r="J107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>78.95326</v>
       </c>
       <c r="K107" s="1">
@@ -7937,27 +8392,31 @@
         <v>98.296909999999997</v>
       </c>
       <c r="O107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>98.382059999999996</v>
       </c>
-      <c r="P107" t="s">
+      <c r="P107" s="1">
+        <v>97.132379999999998</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>97.596800000000002</v>
+      </c>
+      <c r="R107" s="1">
+        <v>97.365790000000004</v>
+      </c>
+      <c r="S107" s="1">
+        <v>97.332440000000005</v>
+      </c>
+      <c r="T107">
+        <f t="shared" si="9"/>
+        <v>97.349115000000012</v>
+      </c>
+      <c r="U107" t="s">
         <v>110</v>
       </c>
-      <c r="Q107" s="1">
-        <v>97.132379999999998</v>
-      </c>
-      <c r="R107" s="1">
-        <v>97.596800000000002</v>
-      </c>
-      <c r="S107" s="1">
-        <v>97.365790000000004</v>
-      </c>
-      <c r="T107" s="1">
-        <v>97.332440000000005</v>
-      </c>
-      <c r="U107">
-        <f t="shared" si="7"/>
-        <v>97.349115000000012</v>
+      <c r="Z107" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>

--- a/genomic_range/results/Specificity_Table.xlsx
+++ b/genomic_range/results/Specificity_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mei/Desktop/benchmarks/genomic_range/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajni\Desktop\benchmarks\genomic_range\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AC5C1A-BE31-2541-8AE0-026C9775477D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DE042C-A231-4066-B412-C7D612697FB2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35340" yWindow="460" windowWidth="15860" windowHeight="26780" xr2:uid="{9FDEA6EF-D5C4-7F45-96BD-DB608973E662}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9FDEA6EF-D5C4-7F45-96BD-DB608973E662}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Chipenrich_Colorectal_Cancer</t>
   </si>
@@ -43,327 +43,6 @@
   </si>
   <si>
     <t>Chipenrich_Prostate_Cancer</t>
-  </si>
-  <si>
-    <t>Sample</t>
-  </si>
-  <si>
-    <t>GSM1847178</t>
-  </si>
-  <si>
-    <t>GSE84618</t>
-  </si>
-  <si>
-    <t>GSM2283764</t>
-  </si>
-  <si>
-    <t>GSM2283765</t>
-  </si>
-  <si>
-    <t>GSM2283766</t>
-  </si>
-  <si>
-    <t>GSM2283767</t>
-  </si>
-  <si>
-    <t>GSM2283768</t>
-  </si>
-  <si>
-    <t>GSM2283769</t>
-  </si>
-  <si>
-    <t>GSM2283770</t>
-  </si>
-  <si>
-    <t>GSM2283771</t>
-  </si>
-  <si>
-    <t>GSM2283772</t>
-  </si>
-  <si>
-    <t>GSM2283773</t>
-  </si>
-  <si>
-    <t>GSM2283774</t>
-  </si>
-  <si>
-    <t>GSM2283775</t>
-  </si>
-  <si>
-    <t>GSM2101436</t>
-  </si>
-  <si>
-    <t>GSM2101437</t>
-  </si>
-  <si>
-    <t>GSM2752893</t>
-  </si>
-  <si>
-    <t>GSM2101438</t>
-  </si>
-  <si>
-    <t>GSM2101439</t>
-  </si>
-  <si>
-    <t>GSM2752894</t>
-  </si>
-  <si>
-    <t>GSM2752897</t>
-  </si>
-  <si>
-    <t>GSM2752898</t>
-  </si>
-  <si>
-    <t>GSM2752899</t>
-  </si>
-  <si>
-    <t>GSM2752900</t>
-  </si>
-  <si>
-    <t>GSM2752901</t>
-  </si>
-  <si>
-    <t>GSM2752895</t>
-  </si>
-  <si>
-    <t>GSM2298950</t>
-  </si>
-  <si>
-    <t>GSM2058015</t>
-  </si>
-  <si>
-    <t>GSM2058016</t>
-  </si>
-  <si>
-    <t>GSM2058017</t>
-  </si>
-  <si>
-    <t>GSM2058018</t>
-  </si>
-  <si>
-    <t>GSM2058019</t>
-  </si>
-  <si>
-    <t>GSM2058020</t>
-  </si>
-  <si>
-    <t>GSM2058021</t>
-  </si>
-  <si>
-    <t>GSM2058022</t>
-  </si>
-  <si>
-    <t>GSM2058023</t>
-  </si>
-  <si>
-    <t>GSM2058024</t>
-  </si>
-  <si>
-    <t>GSM2058025</t>
-  </si>
-  <si>
-    <t>GSM2058026</t>
-  </si>
-  <si>
-    <t>GSM2058027</t>
-  </si>
-  <si>
-    <t>GSM2058028</t>
-  </si>
-  <si>
-    <t>GSM2058029</t>
-  </si>
-  <si>
-    <t>GSM2058030</t>
-  </si>
-  <si>
-    <t>GSM2058031</t>
-  </si>
-  <si>
-    <t>GSM2058032</t>
-  </si>
-  <si>
-    <t>GSM2058033</t>
-  </si>
-  <si>
-    <t>GSM2058034</t>
-  </si>
-  <si>
-    <t>GSM2058035</t>
-  </si>
-  <si>
-    <t>GSM2058036</t>
-  </si>
-  <si>
-    <t>GSM2058037</t>
-  </si>
-  <si>
-    <t>GSM2058038</t>
-  </si>
-  <si>
-    <t>GSM2058039</t>
-  </si>
-  <si>
-    <t>GSM2058040</t>
-  </si>
-  <si>
-    <t>GSM2058041</t>
-  </si>
-  <si>
-    <t>GSM2058042</t>
-  </si>
-  <si>
-    <t>GSM2058043</t>
-  </si>
-  <si>
-    <t>GSM2058044</t>
-  </si>
-  <si>
-    <t>GSM2058045</t>
-  </si>
-  <si>
-    <t>GSM2058046</t>
-  </si>
-  <si>
-    <t>GSM2058047</t>
-  </si>
-  <si>
-    <t>GSM2058048</t>
-  </si>
-  <si>
-    <t>GSM2058049</t>
-  </si>
-  <si>
-    <t>GSM2058050</t>
-  </si>
-  <si>
-    <t>GSM2058051</t>
-  </si>
-  <si>
-    <t>GSM2058052</t>
-  </si>
-  <si>
-    <t>GSM2058053</t>
-  </si>
-  <si>
-    <t>GSM2058054</t>
-  </si>
-  <si>
-    <t>GSM2058055</t>
-  </si>
-  <si>
-    <t>GSM2058056</t>
-  </si>
-  <si>
-    <t>GSM2058057</t>
-  </si>
-  <si>
-    <t>GSM2058058</t>
-  </si>
-  <si>
-    <t>GSM2058059</t>
-  </si>
-  <si>
-    <t>GSM2058060</t>
-  </si>
-  <si>
-    <t>GSM2058061</t>
-  </si>
-  <si>
-    <t>GSM2058062</t>
-  </si>
-  <si>
-    <t>GSM2058063</t>
-  </si>
-  <si>
-    <t>GSM2058064</t>
-  </si>
-  <si>
-    <t>GSM2058065</t>
-  </si>
-  <si>
-    <t>GSM2058066</t>
-  </si>
-  <si>
-    <t>GSM2058067</t>
-  </si>
-  <si>
-    <t>GSM2058068</t>
-  </si>
-  <si>
-    <t>GSM2058069</t>
-  </si>
-  <si>
-    <t>GSM2058070</t>
-  </si>
-  <si>
-    <t>GSM2058071</t>
-  </si>
-  <si>
-    <t>GSM2058072</t>
-  </si>
-  <si>
-    <t>GSM2058073</t>
-  </si>
-  <si>
-    <t>GSM2058074</t>
-  </si>
-  <si>
-    <t>GSM2058075</t>
-  </si>
-  <si>
-    <t>GSM2058076</t>
-  </si>
-  <si>
-    <t>GSM2058077</t>
-  </si>
-  <si>
-    <t>GSM2058078</t>
-  </si>
-  <si>
-    <t>GSM2058079</t>
-  </si>
-  <si>
-    <t>GSM2058080</t>
-  </si>
-  <si>
-    <t>GSM2058081</t>
-  </si>
-  <si>
-    <t>GSM2058082</t>
-  </si>
-  <si>
-    <t>GSM2058083</t>
-  </si>
-  <si>
-    <t>GSM2058084</t>
-  </si>
-  <si>
-    <t>GSM2058085</t>
-  </si>
-  <si>
-    <t>GSM2058086</t>
-  </si>
-  <si>
-    <t>GSM2058087</t>
-  </si>
-  <si>
-    <t>GSM2058088</t>
-  </si>
-  <si>
-    <t>GSM2058089</t>
-  </si>
-  <si>
-    <t>GSM2058090</t>
-  </si>
-  <si>
-    <t>GSM2058091</t>
-  </si>
-  <si>
-    <t>GSM2058092</t>
-  </si>
-  <si>
-    <t>GSM2058093</t>
   </si>
   <si>
     <t>Chipenrich_Median_Specificity</t>
@@ -433,7 +112,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -475,10 +154,74 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -793,43 +536,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DBC195-AB1D-C14E-9476-031E2CC25C6F}">
-  <dimension ref="A1:Z107"/>
+  <dimension ref="A1:Y107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2:Z107"/>
+    <sheetView tabSelected="1" topLeftCell="T91" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="U105" sqref="U105:X105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.625" customWidth="1"/>
+    <col min="2" max="2" width="27.625" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="26.33203125" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.375" customWidth="1"/>
+    <col min="6" max="6" width="27.375" customWidth="1"/>
     <col min="7" max="7" width="29.5" customWidth="1"/>
-    <col min="8" max="8" width="24.83203125" customWidth="1"/>
-    <col min="9" max="9" width="25.33203125" customWidth="1"/>
-    <col min="10" max="10" width="28.1640625" customWidth="1"/>
+    <col min="8" max="8" width="24.875" customWidth="1"/>
+    <col min="9" max="9" width="25.375" customWidth="1"/>
+    <col min="10" max="10" width="28.125" customWidth="1"/>
     <col min="11" max="11" width="28" customWidth="1"/>
-    <col min="12" max="12" width="30.83203125" customWidth="1"/>
-    <col min="13" max="13" width="25.83203125" customWidth="1"/>
-    <col min="14" max="14" width="26.83203125" customWidth="1"/>
-    <col min="15" max="15" width="28.33203125" customWidth="1"/>
-    <col min="16" max="16" width="22.1640625" customWidth="1"/>
+    <col min="12" max="12" width="30.875" customWidth="1"/>
+    <col min="13" max="13" width="25.875" customWidth="1"/>
+    <col min="14" max="14" width="26.875" customWidth="1"/>
+    <col min="15" max="15" width="28.375" customWidth="1"/>
+    <col min="16" max="16" width="22.125" customWidth="1"/>
     <col min="17" max="17" width="24" customWidth="1"/>
-    <col min="18" max="18" width="20.1640625" customWidth="1"/>
-    <col min="19" max="19" width="21.1640625" customWidth="1"/>
+    <col min="18" max="18" width="20.125" customWidth="1"/>
+    <col min="19" max="19" width="21.125" customWidth="1"/>
     <col min="20" max="20" width="23" customWidth="1"/>
-    <col min="21" max="21" width="12.5" customWidth="1"/>
-    <col min="22" max="22" width="20.5" customWidth="1"/>
-    <col min="23" max="23" width="18.33203125" customWidth="1"/>
-    <col min="24" max="24" width="18" customWidth="1"/>
-    <col min="25" max="25" width="17.6640625" customWidth="1"/>
-    <col min="26" max="26" width="22.1640625" customWidth="1"/>
+    <col min="21" max="21" width="20.5" customWidth="1"/>
+    <col min="22" max="22" width="18.375" customWidth="1"/>
+    <col min="23" max="23" width="18" customWidth="1"/>
+    <col min="24" max="24" width="17.625" customWidth="1"/>
+    <col min="25" max="25" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -843,73 +585,70 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>111</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>114</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>115</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>128</v>
-      </c>
-      <c r="X1" t="s">
-        <v>129</v>
+        <v>22</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
       <c r="A2" s="1">
         <v>80.988810000000001</v>
       </c>
@@ -974,15 +713,24 @@
         <f>MEDIAN($P2,$Q2,$R2,$S2)</f>
         <v>97.713989999999995</v>
       </c>
-      <c r="U2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z2" t="e">
-        <f>MEDIAN($V2,$W2,$X2,$Y2)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <f>MEDIAN($U2,$V2,$W2,$X2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" s="1">
         <v>88.808059999999998</v>
       </c>
@@ -1047,15 +795,24 @@
         <f t="shared" ref="T3:T66" si="3">MEDIAN($P3,$Q3,$R3,$S3)</f>
         <v>97.513460000000009</v>
       </c>
-      <c r="U3" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z3" t="e">
-        <f t="shared" ref="Z3:Z66" si="4">MEDIAN($V3,$W3,$X3,$Y3)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y66" si="4">MEDIAN($U3,$V3,$W3,$X3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" s="1">
         <v>55.995519999999999</v>
       </c>
@@ -1104,15 +861,24 @@
         <f t="shared" si="2"/>
         <v>96.457144999999997</v>
       </c>
-      <c r="U4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z4" t="e">
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" s="1">
         <v>96.215509999999995</v>
       </c>
@@ -1161,15 +927,16 @@
         <f t="shared" si="3"/>
         <v>67.924530000000004</v>
       </c>
-      <c r="U5" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z5" t="e">
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25">
       <c r="A6" s="1">
         <v>56.032870000000003</v>
       </c>
@@ -1218,15 +985,24 @@
         <f t="shared" si="2"/>
         <v>96.457144999999997</v>
       </c>
-      <c r="U6" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z6" t="e">
+      <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" s="1">
         <v>94.740769999999998</v>
       </c>
@@ -1275,15 +1051,24 @@
         <f t="shared" si="3"/>
         <v>98.495415000000008</v>
       </c>
-      <c r="U7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z7" t="e">
+      <c r="U7" s="1">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y7">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" s="1">
         <v>94.070480000000003</v>
       </c>
@@ -1348,15 +1133,24 @@
         <f t="shared" si="3"/>
         <v>97.354389999999995</v>
       </c>
-      <c r="U8" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z8" t="e">
+      <c r="U8" s="1">
+        <v>0</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y8">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" s="1">
         <v>94.070480000000003</v>
       </c>
@@ -1421,15 +1215,24 @@
         <f t="shared" si="3"/>
         <v>98.063729999999993</v>
       </c>
-      <c r="U9" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z9" t="e">
+      <c r="U9" s="1">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y9">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" s="1">
         <v>94.070480000000003</v>
       </c>
@@ -1494,15 +1297,24 @@
         <f t="shared" si="3"/>
         <v>98.063729999999993</v>
       </c>
-      <c r="U10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z10" t="e">
+      <c r="U10" s="1">
+        <v>0</v>
+      </c>
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y10">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" s="1">
         <v>94.070480000000003</v>
       </c>
@@ -1567,15 +1379,24 @@
         <f t="shared" si="3"/>
         <v>98.063729999999993</v>
       </c>
-      <c r="U11" t="s">
-        <v>14</v>
-      </c>
-      <c r="Z11" t="e">
+      <c r="U11" s="1">
+        <v>0</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y11">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" s="1">
         <v>95.096029999999999</v>
       </c>
@@ -1624,15 +1445,24 @@
         <f t="shared" si="3"/>
         <v>97.742995000000008</v>
       </c>
-      <c r="U12" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z12" t="e">
+      <c r="U12" s="1">
+        <v>0</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y12">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" s="1">
         <v>51.158450000000002</v>
       </c>
@@ -1697,15 +1527,24 @@
         <f t="shared" si="3"/>
         <v>89.840559999999996</v>
       </c>
-      <c r="U13" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z13" t="e">
+      <c r="U13" s="1">
+        <v>0</v>
+      </c>
+      <c r="V13" s="1">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y13">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" s="1">
         <v>51.158450000000002</v>
       </c>
@@ -1770,15 +1609,12 @@
         <f t="shared" si="3"/>
         <v>91.545820000000006</v>
       </c>
-      <c r="U14" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z14" t="e">
+      <c r="Y14" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25">
       <c r="A15" s="1">
         <v>51.158450000000002</v>
       </c>
@@ -1843,15 +1679,24 @@
         <f t="shared" si="3"/>
         <v>89.930170000000004</v>
       </c>
-      <c r="U15" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z15" t="e">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" s="1">
         <v>94.350179999999995</v>
       </c>
@@ -1916,15 +1761,12 @@
         <f t="shared" si="3"/>
         <v>91.222094999999996</v>
       </c>
-      <c r="U16" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z16" t="e">
+      <c r="Y16" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25">
       <c r="A17" s="1">
         <v>59.861789999999999</v>
       </c>
@@ -1989,15 +1831,24 @@
         <f t="shared" si="3"/>
         <v>94.597065000000001</v>
       </c>
-      <c r="U17" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z17" t="e">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" s="1">
         <v>72.535470000000004</v>
       </c>
@@ -2046,15 +1897,12 @@
         <f t="shared" si="2"/>
         <v>94.031279999999995</v>
       </c>
-      <c r="U18" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z18" t="e">
+      <c r="Y18" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25">
       <c r="A19" s="1">
         <v>90.039169999999999</v>
       </c>
@@ -2119,15 +1967,24 @@
         <f t="shared" si="3"/>
         <v>97.000680000000003</v>
       </c>
-      <c r="U19" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z19" t="e">
+      <c r="U19" s="3">
+        <v>0</v>
+      </c>
+      <c r="V19" s="3">
+        <v>0</v>
+      </c>
+      <c r="W19" s="3">
+        <v>0</v>
+      </c>
+      <c r="X19" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y19">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" s="1">
         <v>80.358140000000006</v>
       </c>
@@ -2192,15 +2049,24 @@
         <f t="shared" si="3"/>
         <v>96.658664999999999</v>
       </c>
-      <c r="U20" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z20" t="e">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" s="1">
         <v>71.679100000000005</v>
       </c>
@@ -2249,15 +2115,24 @@
         <f t="shared" si="2"/>
         <v>94.46108000000001</v>
       </c>
-      <c r="U21" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z21" t="e">
+      <c r="U21" s="4">
+        <v>0</v>
+      </c>
+      <c r="V21" s="4">
+        <v>0</v>
+      </c>
+      <c r="W21" s="4">
+        <v>0</v>
+      </c>
+      <c r="X21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y21">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" s="1">
         <v>88.681709999999995</v>
       </c>
@@ -2322,15 +2197,24 @@
         <f t="shared" si="3"/>
         <v>94.701265000000006</v>
       </c>
-      <c r="U22" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z22" t="e">
+      <c r="U22" s="5">
+        <v>0</v>
+      </c>
+      <c r="V22" s="5">
+        <v>0</v>
+      </c>
+      <c r="W22" s="5">
+        <v>0</v>
+      </c>
+      <c r="X22" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y22">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" s="1">
         <v>62.969189999999998</v>
       </c>
@@ -2395,15 +2279,24 @@
         <f t="shared" si="3"/>
         <v>93.980195000000009</v>
       </c>
-      <c r="U23" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z23" t="e">
+      <c r="U23" s="6">
+        <v>0</v>
+      </c>
+      <c r="V23" s="6">
+        <v>0</v>
+      </c>
+      <c r="W23" s="6">
+        <v>0</v>
+      </c>
+      <c r="X23" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y23">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" s="1">
         <v>80.458699999999993</v>
       </c>
@@ -2452,15 +2345,24 @@
         <f t="shared" si="2"/>
         <v>93.49736</v>
       </c>
-      <c r="U24" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z24" t="e">
+      <c r="U24" s="7">
+        <v>0</v>
+      </c>
+      <c r="V24" s="7">
+        <v>0</v>
+      </c>
+      <c r="W24" s="7">
+        <v>0</v>
+      </c>
+      <c r="X24" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y24">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" s="1">
         <v>71.465869999999995</v>
       </c>
@@ -2509,15 +2411,24 @@
         <f t="shared" si="2"/>
         <v>94.169614999999993</v>
       </c>
-      <c r="U25" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z25" t="e">
+      <c r="U25" s="8">
+        <v>0</v>
+      </c>
+      <c r="V25" s="8">
+        <v>0</v>
+      </c>
+      <c r="W25" s="8">
+        <v>0</v>
+      </c>
+      <c r="X25" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y25">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" s="1">
         <v>64.70478</v>
       </c>
@@ -2566,15 +2477,24 @@
         <f t="shared" si="2"/>
         <v>97.008054999999999</v>
       </c>
-      <c r="U26" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z26" t="e">
+      <c r="U26" s="9">
+        <v>0</v>
+      </c>
+      <c r="V26" s="9">
+        <v>0</v>
+      </c>
+      <c r="W26" s="9">
+        <v>0</v>
+      </c>
+      <c r="X26" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y26">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27" s="1">
         <v>67.818449999999999</v>
       </c>
@@ -2639,15 +2559,24 @@
         <f t="shared" si="3"/>
         <v>95.657375000000002</v>
       </c>
-      <c r="U27" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z27" t="e">
+      <c r="U27" s="10">
+        <v>0</v>
+      </c>
+      <c r="V27" s="10">
+        <v>0</v>
+      </c>
+      <c r="W27" s="10">
+        <v>0</v>
+      </c>
+      <c r="X27" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y27">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28" s="1">
         <v>90.993849999999995</v>
       </c>
@@ -2712,15 +2641,24 @@
         <f t="shared" si="3"/>
         <v>93.304190000000006</v>
       </c>
-      <c r="U28" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z28" t="e">
+      <c r="U28" s="11">
+        <v>0</v>
+      </c>
+      <c r="V28" s="11">
+        <v>0</v>
+      </c>
+      <c r="W28" s="11">
+        <v>0</v>
+      </c>
+      <c r="X28" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y28">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29" s="1">
         <v>81.212689999999995</v>
       </c>
@@ -2785,15 +2723,12 @@
         <f t="shared" si="3"/>
         <v>98.189970000000002</v>
       </c>
-      <c r="U29" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z29" t="e">
+      <c r="Y29" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25">
       <c r="A30" s="1">
         <v>72.324929999999995</v>
       </c>
@@ -2858,15 +2793,24 @@
         <f t="shared" si="3"/>
         <v>97.944519999999997</v>
       </c>
-      <c r="U30" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z30" t="e">
+      <c r="U30" s="12">
+        <v>0</v>
+      </c>
+      <c r="V30" s="12">
+        <v>0</v>
+      </c>
+      <c r="W30" s="12">
+        <v>0</v>
+      </c>
+      <c r="X30" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y30">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25">
       <c r="A31" s="1">
         <v>77.645079999999993</v>
       </c>
@@ -2931,15 +2875,12 @@
         <f t="shared" si="3"/>
         <v>98.680605</v>
       </c>
-      <c r="U31" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z31" t="e">
+      <c r="Y31" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25">
       <c r="A32" s="1">
         <v>81.022580000000005</v>
       </c>
@@ -3000,15 +2941,12 @@
         <f t="shared" si="3"/>
         <v>98.275859999999994</v>
       </c>
-      <c r="U32" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z32" t="e">
+      <c r="Y32" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25">
       <c r="A33" s="1">
         <v>85.399959999999993</v>
       </c>
@@ -3073,15 +3011,12 @@
         <f t="shared" si="3"/>
         <v>98.108200000000011</v>
       </c>
-      <c r="U33" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z33" t="e">
+      <c r="Y33" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25">
       <c r="A34" s="1">
         <v>81.492540000000005</v>
       </c>
@@ -3146,15 +3081,12 @@
         <f t="shared" si="3"/>
         <v>95.895579999999995</v>
       </c>
-      <c r="U34" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z34" t="e">
+      <c r="Y34" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25">
       <c r="A35" s="1">
         <v>68.801339999999996</v>
       </c>
@@ -3219,15 +3151,24 @@
         <f t="shared" si="3"/>
         <v>97.655734999999993</v>
       </c>
-      <c r="U35" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z35" t="e">
+      <c r="U35" s="13">
+        <v>0</v>
+      </c>
+      <c r="V35" s="13">
+        <v>0</v>
+      </c>
+      <c r="W35" s="13">
+        <v>0</v>
+      </c>
+      <c r="X35" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y35">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25">
       <c r="A36" s="1">
         <v>65.658259999999999</v>
       </c>
@@ -3292,15 +3233,24 @@
         <f t="shared" si="3"/>
         <v>96.379584999999992</v>
       </c>
-      <c r="U36" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z36" t="e">
+      <c r="U36" s="14">
+        <v>0</v>
+      </c>
+      <c r="V36" s="14">
+        <v>0</v>
+      </c>
+      <c r="W36" s="14">
+        <v>0</v>
+      </c>
+      <c r="X36" s="14">
+        <v>0</v>
+      </c>
+      <c r="Y36">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25">
       <c r="A37" s="1">
         <v>67.220770000000002</v>
       </c>
@@ -3365,15 +3315,24 @@
         <f t="shared" si="3"/>
         <v>97.444684999999993</v>
       </c>
-      <c r="U37" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z37" t="e">
+      <c r="U37" s="15">
+        <v>0</v>
+      </c>
+      <c r="V37" s="15">
+        <v>0</v>
+      </c>
+      <c r="W37" s="15">
+        <v>0</v>
+      </c>
+      <c r="X37" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y37">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25">
       <c r="A38" s="1">
         <v>66.629320000000007</v>
       </c>
@@ -3438,15 +3397,24 @@
         <f t="shared" si="3"/>
         <v>94.549045000000007</v>
       </c>
-      <c r="U38" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z38" t="e">
+      <c r="U38" s="16">
+        <v>0</v>
+      </c>
+      <c r="V38" s="16">
+        <v>0</v>
+      </c>
+      <c r="W38" s="16">
+        <v>0</v>
+      </c>
+      <c r="X38" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y38">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25">
       <c r="A39" s="1">
         <v>64.2697</v>
       </c>
@@ -3511,15 +3479,24 @@
         <f t="shared" si="3"/>
         <v>94.839804999999998</v>
       </c>
-      <c r="U39" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z39" t="e">
+      <c r="U39" s="17">
+        <v>0</v>
+      </c>
+      <c r="V39" s="17">
+        <v>0</v>
+      </c>
+      <c r="W39" s="17">
+        <v>0</v>
+      </c>
+      <c r="X39" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y39">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25">
       <c r="A40" s="1">
         <v>69.20635</v>
       </c>
@@ -3584,15 +3561,24 @@
         <f t="shared" si="3"/>
         <v>97.097925000000004</v>
       </c>
-      <c r="U40" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z40" t="e">
+      <c r="U40" s="18">
+        <v>0</v>
+      </c>
+      <c r="V40" s="18">
+        <v>0</v>
+      </c>
+      <c r="W40" s="18">
+        <v>0</v>
+      </c>
+      <c r="X40" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y40">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25">
       <c r="A41" s="1">
         <v>66.100110000000001</v>
       </c>
@@ -3657,15 +3643,24 @@
         <f t="shared" si="3"/>
         <v>95.545099999999991</v>
       </c>
-      <c r="U41" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z41" t="e">
+      <c r="U41" s="19">
+        <v>0</v>
+      </c>
+      <c r="V41" s="19">
+        <v>0</v>
+      </c>
+      <c r="W41" s="19">
+        <v>0</v>
+      </c>
+      <c r="X41" s="19">
+        <v>0</v>
+      </c>
+      <c r="Y41">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25">
       <c r="A42" s="1">
         <v>63.712690000000002</v>
       </c>
@@ -3730,15 +3725,24 @@
         <f t="shared" si="3"/>
         <v>93.732039999999998</v>
       </c>
-      <c r="U42" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z42" t="e">
+      <c r="U42" s="20">
+        <v>0</v>
+      </c>
+      <c r="V42" s="20">
+        <v>0</v>
+      </c>
+      <c r="W42" s="20">
+        <v>0</v>
+      </c>
+      <c r="X42" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y42">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25">
       <c r="A43" s="1">
         <v>71.732640000000004</v>
       </c>
@@ -3803,15 +3807,24 @@
         <f t="shared" si="3"/>
         <v>94.570705000000004</v>
       </c>
-      <c r="U43" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z43" t="e">
+      <c r="U43" s="21">
+        <v>0</v>
+      </c>
+      <c r="V43" s="21">
+        <v>0</v>
+      </c>
+      <c r="W43" s="21">
+        <v>0</v>
+      </c>
+      <c r="X43" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y43">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25">
       <c r="A44" s="1">
         <v>63.043880000000001</v>
       </c>
@@ -3876,15 +3889,24 @@
         <f t="shared" si="3"/>
         <v>93.934169999999995</v>
       </c>
-      <c r="U44" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z44" t="e">
+      <c r="U44" s="22">
+        <v>0</v>
+      </c>
+      <c r="V44" s="22">
+        <v>0</v>
+      </c>
+      <c r="W44" s="22">
+        <v>0</v>
+      </c>
+      <c r="X44" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y44">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25">
       <c r="A45" s="1">
         <v>66.722719999999995</v>
       </c>
@@ -3949,15 +3971,24 @@
         <f t="shared" si="3"/>
         <v>94.526425000000003</v>
       </c>
-      <c r="U45" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z45" t="e">
+      <c r="U45" s="23">
+        <v>0</v>
+      </c>
+      <c r="V45" s="23">
+        <v>0</v>
+      </c>
+      <c r="W45" s="23">
+        <v>0</v>
+      </c>
+      <c r="X45" s="23">
+        <v>0</v>
+      </c>
+      <c r="Y45">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25">
       <c r="A46" s="1">
         <v>68.341430000000003</v>
       </c>
@@ -4022,15 +4053,12 @@
         <f t="shared" si="3"/>
         <v>93.35880499999999</v>
       </c>
-      <c r="U46" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z46" t="e">
+      <c r="Y46" t="e">
         <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25">
       <c r="A47" s="1">
         <v>70.05977</v>
       </c>
@@ -4095,15 +4123,24 @@
         <f t="shared" si="3"/>
         <v>96.141379999999998</v>
       </c>
-      <c r="U47" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z47" t="e">
+      <c r="U47" s="24">
+        <v>0</v>
+      </c>
+      <c r="V47" s="24">
+        <v>0</v>
+      </c>
+      <c r="W47" s="24">
+        <v>0</v>
+      </c>
+      <c r="X47" s="24">
+        <v>0</v>
+      </c>
+      <c r="Y47">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25">
       <c r="A48" s="1">
         <v>61.195140000000002</v>
       </c>
@@ -4152,15 +4189,24 @@
         <f t="shared" si="2"/>
         <v>96.716160000000002</v>
       </c>
-      <c r="U48" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z48" t="e">
+      <c r="U48" s="25">
+        <v>0</v>
+      </c>
+      <c r="V48" s="25">
+        <v>0</v>
+      </c>
+      <c r="W48" s="25">
+        <v>0</v>
+      </c>
+      <c r="X48" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y48">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25">
       <c r="A49" s="1">
         <v>70.070949999999996</v>
       </c>
@@ -4209,15 +4255,24 @@
         <f t="shared" si="2"/>
         <v>97.579724999999996</v>
       </c>
-      <c r="U49" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z49" t="e">
+      <c r="U49" s="26">
+        <v>0</v>
+      </c>
+      <c r="V49" s="26">
+        <v>0</v>
+      </c>
+      <c r="W49" s="26">
+        <v>0</v>
+      </c>
+      <c r="X49" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y49">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25">
       <c r="A50" s="1">
         <v>71.882000000000005</v>
       </c>
@@ -4266,15 +4321,24 @@
         <f t="shared" si="2"/>
         <v>98.00739999999999</v>
       </c>
-      <c r="U50" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z50" t="e">
+      <c r="U50" s="27">
+        <v>0</v>
+      </c>
+      <c r="V50" s="27">
+        <v>0</v>
+      </c>
+      <c r="W50" s="27">
+        <v>0</v>
+      </c>
+      <c r="X50" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y50">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25">
       <c r="A51" s="1">
         <v>66.38655</v>
       </c>
@@ -4339,15 +4403,24 @@
         <f t="shared" si="3"/>
         <v>95.464439999999996</v>
       </c>
-      <c r="U51" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z51" t="e">
+      <c r="U51" s="28">
+        <v>0</v>
+      </c>
+      <c r="V51" s="28">
+        <v>0</v>
+      </c>
+      <c r="W51" s="28">
+        <v>0</v>
+      </c>
+      <c r="X51" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y51">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25">
       <c r="A52" s="1">
         <v>66.479929999999996</v>
       </c>
@@ -4412,15 +4485,24 @@
         <f t="shared" si="3"/>
         <v>96.093040000000002</v>
       </c>
-      <c r="U52" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z52" t="e">
+      <c r="U52" s="29">
+        <v>0</v>
+      </c>
+      <c r="V52" s="29">
+        <v>0</v>
+      </c>
+      <c r="W52" s="29">
+        <v>0</v>
+      </c>
+      <c r="X52" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y52">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25">
       <c r="A53" s="1">
         <v>58.868560000000002</v>
       </c>
@@ -4485,15 +4567,24 @@
         <f t="shared" si="3"/>
         <v>91.743120000000005</v>
       </c>
-      <c r="U53" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z53" t="e">
+      <c r="U53" s="30">
+        <v>0</v>
+      </c>
+      <c r="V53" s="30">
+        <v>0</v>
+      </c>
+      <c r="W53" s="30">
+        <v>0</v>
+      </c>
+      <c r="X53" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y53">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25">
       <c r="A54" s="1">
         <v>69.237949999999998</v>
       </c>
@@ -4558,15 +4649,24 @@
         <f t="shared" si="3"/>
         <v>95.961179999999999</v>
       </c>
-      <c r="U54" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z54" t="e">
+      <c r="U54" s="31">
+        <v>0</v>
+      </c>
+      <c r="V54" s="31">
+        <v>0</v>
+      </c>
+      <c r="W54" s="31">
+        <v>0</v>
+      </c>
+      <c r="X54" s="31">
+        <v>0</v>
+      </c>
+      <c r="Y54">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25">
       <c r="A55" s="1">
         <v>72.540599999999998</v>
       </c>
@@ -4631,15 +4731,24 @@
         <f t="shared" si="3"/>
         <v>95.786034999999998</v>
       </c>
-      <c r="U55" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z55" t="e">
+      <c r="U55" s="32">
+        <v>0</v>
+      </c>
+      <c r="V55" s="32">
+        <v>0</v>
+      </c>
+      <c r="W55" s="32">
+        <v>0</v>
+      </c>
+      <c r="X55" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y55">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25">
       <c r="A56" s="1">
         <v>71.844660000000005</v>
       </c>
@@ -4704,15 +4813,24 @@
         <f t="shared" si="3"/>
         <v>97.090620000000001</v>
       </c>
-      <c r="U56" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z56" t="e">
+      <c r="U56" s="33">
+        <v>0</v>
+      </c>
+      <c r="V56" s="33">
+        <v>0</v>
+      </c>
+      <c r="W56" s="33">
+        <v>0</v>
+      </c>
+      <c r="X56" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y56">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25">
       <c r="A57" s="1">
         <v>57.76699</v>
       </c>
@@ -4777,15 +4895,24 @@
         <f t="shared" si="3"/>
         <v>93.652495000000002</v>
       </c>
-      <c r="U57" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z57" t="e">
+      <c r="U57" s="34">
+        <v>0</v>
+      </c>
+      <c r="V57" s="34">
+        <v>0</v>
+      </c>
+      <c r="W57" s="34">
+        <v>0</v>
+      </c>
+      <c r="X57" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y57">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25">
       <c r="A58" s="1">
         <v>69.592830000000006</v>
       </c>
@@ -4850,15 +4977,24 @@
         <f t="shared" si="3"/>
         <v>95.291339999999991</v>
       </c>
-      <c r="U58" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z58" t="e">
+      <c r="U58" s="35">
+        <v>0</v>
+      </c>
+      <c r="V58" s="35">
+        <v>0</v>
+      </c>
+      <c r="W58" s="35">
+        <v>0</v>
+      </c>
+      <c r="X58" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y58">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25">
       <c r="A59" s="1">
         <v>70.577250000000006</v>
       </c>
@@ -4923,15 +5059,24 @@
         <f t="shared" si="3"/>
         <v>95.009919999999994</v>
       </c>
-      <c r="U59" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z59" t="e">
+      <c r="U59" s="36">
+        <v>0</v>
+      </c>
+      <c r="V59" s="36">
+        <v>0</v>
+      </c>
+      <c r="W59" s="36">
+        <v>0</v>
+      </c>
+      <c r="X59" s="36">
+        <v>0</v>
+      </c>
+      <c r="Y59">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25">
       <c r="A60" s="1">
         <v>65.782589999999999</v>
       </c>
@@ -4996,15 +5141,24 @@
         <f t="shared" si="3"/>
         <v>94.81268</v>
       </c>
-      <c r="U60" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z60" t="e">
+      <c r="U60" s="37">
+        <v>0</v>
+      </c>
+      <c r="V60" s="37">
+        <v>0</v>
+      </c>
+      <c r="W60" s="37">
+        <v>0</v>
+      </c>
+      <c r="X60" s="37">
+        <v>0</v>
+      </c>
+      <c r="Y60">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25">
       <c r="A61" s="1">
         <v>58.266390000000001</v>
       </c>
@@ -5069,15 +5223,24 @@
         <f t="shared" si="3"/>
         <v>93.968355000000003</v>
       </c>
-      <c r="U61" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z61" t="e">
+      <c r="U61" s="38">
+        <v>0</v>
+      </c>
+      <c r="V61" s="38">
+        <v>0</v>
+      </c>
+      <c r="W61" s="38">
+        <v>0</v>
+      </c>
+      <c r="X61" s="38">
+        <v>0</v>
+      </c>
+      <c r="Y61">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25">
       <c r="A62" s="1">
         <v>64.619119999999995</v>
       </c>
@@ -5142,15 +5305,24 @@
         <f t="shared" si="3"/>
         <v>95.006010000000003</v>
       </c>
-      <c r="U62" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z62" t="e">
+      <c r="U62" s="39">
+        <v>0</v>
+      </c>
+      <c r="V62" s="39">
+        <v>0</v>
+      </c>
+      <c r="W62" s="39">
+        <v>0</v>
+      </c>
+      <c r="X62" s="39">
+        <v>0</v>
+      </c>
+      <c r="Y62">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25">
       <c r="A63" s="1">
         <v>65.259619999999998</v>
       </c>
@@ -5215,15 +5387,24 @@
         <f t="shared" si="3"/>
         <v>95.352865000000008</v>
       </c>
-      <c r="U63" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z63" t="e">
+      <c r="U63" s="40">
+        <v>0</v>
+      </c>
+      <c r="V63" s="40">
+        <v>0</v>
+      </c>
+      <c r="W63" s="40">
+        <v>0</v>
+      </c>
+      <c r="X63" s="40">
+        <v>0</v>
+      </c>
+      <c r="Y63">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25">
       <c r="A64" s="1">
         <v>62.460329999999999</v>
       </c>
@@ -5288,15 +5469,24 @@
         <f t="shared" si="3"/>
         <v>96.126419999999996</v>
       </c>
-      <c r="U64" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z64" t="e">
+      <c r="U64" s="41">
+        <v>0</v>
+      </c>
+      <c r="V64" s="41">
+        <v>0</v>
+      </c>
+      <c r="W64" s="41">
+        <v>0</v>
+      </c>
+      <c r="X64" s="41">
+        <v>0</v>
+      </c>
+      <c r="Y64">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25">
       <c r="A65" s="1">
         <v>63.829790000000003</v>
       </c>
@@ -5361,15 +5551,24 @@
         <f t="shared" si="3"/>
         <v>94.752984999999995</v>
       </c>
-      <c r="U65" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z65" t="e">
+      <c r="U65" s="42">
+        <v>0</v>
+      </c>
+      <c r="V65" s="42">
+        <v>0</v>
+      </c>
+      <c r="W65" s="42">
+        <v>0</v>
+      </c>
+      <c r="X65" s="42">
+        <v>0</v>
+      </c>
+      <c r="Y65">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25">
       <c r="A66" s="1">
         <v>62.404330000000002</v>
       </c>
@@ -5434,15 +5633,24 @@
         <f t="shared" si="3"/>
         <v>95.845425000000006</v>
       </c>
-      <c r="U66" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z66" t="e">
+      <c r="U66" s="43">
+        <v>0</v>
+      </c>
+      <c r="V66" s="43">
+        <v>0</v>
+      </c>
+      <c r="W66" s="43">
+        <v>0</v>
+      </c>
+      <c r="X66" s="43">
+        <v>0</v>
+      </c>
+      <c r="Y66">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25">
       <c r="A67" s="1">
         <v>64.97945</v>
       </c>
@@ -5491,15 +5699,24 @@
         <f t="shared" ref="O67:O107" si="7">MEDIAN($K67,$L67,$M67,$N67)</f>
         <v>96.821304999999995</v>
       </c>
-      <c r="U67" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z67" t="e">
-        <f t="shared" ref="Z67:Z107" si="8">MEDIAN($V67,$W67,$X67,$Y67)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="U67" s="44">
+        <v>0</v>
+      </c>
+      <c r="V67" s="44">
+        <v>0</v>
+      </c>
+      <c r="W67" s="44">
+        <v>0</v>
+      </c>
+      <c r="X67" s="44">
+        <v>0</v>
+      </c>
+      <c r="Y67">
+        <f t="shared" ref="Y67:Y107" si="8">MEDIAN($U67,$V67,$W67,$X67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25">
       <c r="A68" s="1">
         <v>60.833019999999998</v>
       </c>
@@ -5564,15 +5781,24 @@
         <f t="shared" ref="T68:T107" si="9">MEDIAN($P68,$Q68,$R68,$S68)</f>
         <v>94.153080000000003</v>
       </c>
-      <c r="U68" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z68" t="e">
+      <c r="U68" s="45">
+        <v>0</v>
+      </c>
+      <c r="V68" s="45">
+        <v>0</v>
+      </c>
+      <c r="W68" s="45">
+        <v>0</v>
+      </c>
+      <c r="X68" s="45">
+        <v>0</v>
+      </c>
+      <c r="Y68">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25">
       <c r="A69" s="1">
         <v>65.167069999999995</v>
       </c>
@@ -5637,15 +5863,24 @@
         <f t="shared" si="9"/>
         <v>96.35161500000001</v>
       </c>
-      <c r="U69" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z69" t="e">
+      <c r="U69" s="46">
+        <v>0</v>
+      </c>
+      <c r="V69" s="46">
+        <v>0</v>
+      </c>
+      <c r="W69" s="46">
+        <v>0</v>
+      </c>
+      <c r="X69" s="46">
+        <v>0</v>
+      </c>
+      <c r="Y69">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25">
       <c r="A70" s="1">
         <v>69.990660000000005</v>
       </c>
@@ -5710,15 +5945,12 @@
         <f t="shared" si="9"/>
         <v>96.214934999999997</v>
       </c>
-      <c r="U70" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z70" t="e">
+      <c r="Y70" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25">
       <c r="A71" s="1">
         <v>68.861940000000004</v>
       </c>
@@ -5783,15 +6015,24 @@
         <f t="shared" si="9"/>
         <v>94.261574999999993</v>
       </c>
-      <c r="U71" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z71" t="e">
+      <c r="U71" s="47">
+        <v>0</v>
+      </c>
+      <c r="V71" s="47">
+        <v>0</v>
+      </c>
+      <c r="W71" s="47">
+        <v>0</v>
+      </c>
+      <c r="X71" s="47">
+        <v>0</v>
+      </c>
+      <c r="Y71">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25">
       <c r="A72" s="1">
         <v>80.096999999999994</v>
       </c>
@@ -5856,15 +6097,24 @@
         <f t="shared" si="9"/>
         <v>97.022900000000007</v>
       </c>
-      <c r="U72" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z72" t="e">
+      <c r="U72" s="48">
+        <v>0</v>
+      </c>
+      <c r="V72" s="48">
+        <v>0</v>
+      </c>
+      <c r="W72" s="48">
+        <v>0</v>
+      </c>
+      <c r="X72" s="48">
+        <v>0</v>
+      </c>
+      <c r="Y72">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25">
       <c r="A73" s="1">
         <v>73.441580000000002</v>
       </c>
@@ -5929,15 +6179,12 @@
         <f t="shared" si="9"/>
         <v>97.042834999999997</v>
       </c>
-      <c r="U73" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z73" t="e">
+      <c r="Y73" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25">
       <c r="A74" s="1">
         <v>71.567350000000005</v>
       </c>
@@ -6002,15 +6249,24 @@
         <f t="shared" si="9"/>
         <v>96.475279999999998</v>
       </c>
-      <c r="U74" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z74" t="e">
+      <c r="U74" s="49">
+        <v>0</v>
+      </c>
+      <c r="V74" s="49">
+        <v>0</v>
+      </c>
+      <c r="W74" s="49">
+        <v>0</v>
+      </c>
+      <c r="X74" s="49">
+        <v>0</v>
+      </c>
+      <c r="Y74">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25">
       <c r="A75" s="1">
         <v>76.712069999999997</v>
       </c>
@@ -6075,15 +6331,12 @@
         <f t="shared" si="9"/>
         <v>96.940079999999995</v>
       </c>
-      <c r="U75" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z75" t="e">
+      <c r="Y75" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25">
       <c r="A76" s="1">
         <v>74.486750000000001</v>
       </c>
@@ -6148,15 +6401,12 @@
         <f t="shared" si="9"/>
         <v>96.967240000000004</v>
       </c>
-      <c r="U76" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z76" t="e">
+      <c r="Y76" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25">
       <c r="A77" s="1">
         <v>73.282300000000006</v>
       </c>
@@ -6221,15 +6471,24 @@
         <f t="shared" si="9"/>
         <v>95.428300000000007</v>
       </c>
-      <c r="U77" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z77" t="e">
+      <c r="U77" s="50">
+        <v>0</v>
+      </c>
+      <c r="V77" s="50">
+        <v>0</v>
+      </c>
+      <c r="W77" s="50">
+        <v>0</v>
+      </c>
+      <c r="X77" s="50">
+        <v>0</v>
+      </c>
+      <c r="Y77">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25">
       <c r="A78" s="1">
         <v>65.901030000000006</v>
       </c>
@@ -6294,15 +6553,24 @@
         <f t="shared" si="9"/>
         <v>97.004909999999995</v>
       </c>
-      <c r="U78" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z78" t="e">
+      <c r="U78" s="51">
+        <v>0</v>
+      </c>
+      <c r="V78" s="51">
+        <v>0</v>
+      </c>
+      <c r="W78" s="51">
+        <v>0</v>
+      </c>
+      <c r="X78" s="51">
+        <v>0</v>
+      </c>
+      <c r="Y78">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25">
       <c r="A79" s="1">
         <v>71.980590000000007</v>
       </c>
@@ -6367,15 +6635,24 @@
         <f t="shared" si="9"/>
         <v>97.096879999999999</v>
       </c>
-      <c r="U79" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z79" t="e">
+      <c r="U79" s="52">
+        <v>0</v>
+      </c>
+      <c r="V79" s="52">
+        <v>0</v>
+      </c>
+      <c r="W79" s="52">
+        <v>0</v>
+      </c>
+      <c r="X79" s="52">
+        <v>0</v>
+      </c>
+      <c r="Y79">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25">
       <c r="A80" s="1">
         <v>79.025940000000006</v>
       </c>
@@ -6440,15 +6717,12 @@
         <f t="shared" si="9"/>
         <v>97.096879999999999</v>
       </c>
-      <c r="U80" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z80" t="e">
+      <c r="Y80" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25">
       <c r="A81" s="1">
         <v>80.104519999999994</v>
       </c>
@@ -6513,15 +6787,12 @@
         <f t="shared" si="9"/>
         <v>96.201499999999996</v>
       </c>
-      <c r="U81" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z81" t="e">
+      <c r="Y81" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25">
       <c r="A82" s="1">
         <v>75.429419999999993</v>
       </c>
@@ -6586,15 +6857,24 @@
         <f t="shared" si="9"/>
         <v>97.199105000000003</v>
       </c>
-      <c r="U82" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z82" t="e">
+      <c r="U82" s="53">
+        <v>0</v>
+      </c>
+      <c r="V82" s="53">
+        <v>0</v>
+      </c>
+      <c r="W82" s="53">
+        <v>0</v>
+      </c>
+      <c r="X82" s="53">
+        <v>0</v>
+      </c>
+      <c r="Y82">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25">
       <c r="A83" s="1">
         <v>74.192949999999996</v>
       </c>
@@ -6659,15 +6939,24 @@
         <f t="shared" si="9"/>
         <v>96.678435000000007</v>
       </c>
-      <c r="U83" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z83" t="e">
+      <c r="U83" s="54">
+        <v>0</v>
+      </c>
+      <c r="V83" s="54">
+        <v>0</v>
+      </c>
+      <c r="W83" s="54">
+        <v>0</v>
+      </c>
+      <c r="X83" s="54">
+        <v>0</v>
+      </c>
+      <c r="Y83">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25">
       <c r="A84" s="1">
         <v>77.738380000000006</v>
       </c>
@@ -6732,15 +7021,12 @@
         <f t="shared" si="9"/>
         <v>97.457345000000004</v>
       </c>
-      <c r="U84" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z84" t="e">
+      <c r="Y84" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25">
       <c r="A85" s="1">
         <v>75.219260000000006</v>
       </c>
@@ -6805,15 +7091,24 @@
         <f t="shared" si="9"/>
         <v>96.685879999999997</v>
       </c>
-      <c r="U85" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z85" t="e">
+      <c r="U85" s="55">
+        <v>0</v>
+      </c>
+      <c r="V85" s="55">
+        <v>0</v>
+      </c>
+      <c r="W85" s="55">
+        <v>0</v>
+      </c>
+      <c r="X85" s="55">
+        <v>0</v>
+      </c>
+      <c r="Y85">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25">
       <c r="A86" s="1">
         <v>72.798509999999993</v>
       </c>
@@ -6878,15 +7173,24 @@
         <f t="shared" si="9"/>
         <v>96.916069999999991</v>
       </c>
-      <c r="U86" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z86" t="e">
+      <c r="U86" s="56">
+        <v>0</v>
+      </c>
+      <c r="V86" s="56">
+        <v>0</v>
+      </c>
+      <c r="W86" s="56">
+        <v>0</v>
+      </c>
+      <c r="X86" s="56">
+        <v>0</v>
+      </c>
+      <c r="Y86">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25">
       <c r="A87" s="1">
         <v>77.410929999999993</v>
       </c>
@@ -6951,15 +7255,12 @@
         <f t="shared" si="9"/>
         <v>97.151694999999989</v>
       </c>
-      <c r="U87" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z87" t="e">
+      <c r="Y87" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25">
       <c r="A88" s="1">
         <v>73.35324</v>
       </c>
@@ -7024,15 +7325,24 @@
         <f t="shared" si="9"/>
         <v>97.474109999999996</v>
       </c>
-      <c r="U88" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z88" t="e">
+      <c r="U88" s="57">
+        <v>0</v>
+      </c>
+      <c r="V88" s="57">
+        <v>0</v>
+      </c>
+      <c r="W88" s="57">
+        <v>0</v>
+      </c>
+      <c r="X88" s="57">
+        <v>0</v>
+      </c>
+      <c r="Y88">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25">
       <c r="A89" s="1">
         <v>74.384330000000006</v>
       </c>
@@ -7097,15 +7407,24 @@
         <f t="shared" si="9"/>
         <v>97.202025000000006</v>
       </c>
-      <c r="U89" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z89" t="e">
+      <c r="U89" s="58">
+        <v>0</v>
+      </c>
+      <c r="V89" s="58">
+        <v>0</v>
+      </c>
+      <c r="W89" s="58">
+        <v>0</v>
+      </c>
+      <c r="X89" s="58">
+        <v>0</v>
+      </c>
+      <c r="Y89">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25">
       <c r="A90" s="1">
         <v>73.857060000000004</v>
       </c>
@@ -7170,15 +7489,24 @@
         <f t="shared" si="9"/>
         <v>95.754275000000007</v>
       </c>
-      <c r="U90" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z90" t="e">
+      <c r="U90" s="59">
+        <v>0</v>
+      </c>
+      <c r="V90" s="59">
+        <v>0</v>
+      </c>
+      <c r="W90" s="59">
+        <v>0</v>
+      </c>
+      <c r="X90" s="59">
+        <v>0</v>
+      </c>
+      <c r="Y90">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25">
       <c r="A91" s="1">
         <v>77.029300000000006</v>
       </c>
@@ -7243,15 +7571,24 @@
         <f t="shared" si="9"/>
         <v>97.449645000000004</v>
       </c>
-      <c r="U91" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z91" t="e">
+      <c r="U91" s="60">
+        <v>0</v>
+      </c>
+      <c r="V91" s="60">
+        <v>0</v>
+      </c>
+      <c r="W91" s="60">
+        <v>0</v>
+      </c>
+      <c r="X91" s="60">
+        <v>0</v>
+      </c>
+      <c r="Y91">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25">
       <c r="A92" s="1">
         <v>80.257509999999996</v>
       </c>
@@ -7316,15 +7653,12 @@
         <f t="shared" si="9"/>
         <v>96.756495000000001</v>
       </c>
-      <c r="U92" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z92" t="e">
+      <c r="Y92" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25">
       <c r="A93" s="1">
         <v>72.671270000000007</v>
       </c>
@@ -7389,15 +7723,24 @@
         <f t="shared" si="9"/>
         <v>96.814185000000009</v>
       </c>
-      <c r="U93" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z93" t="e">
+      <c r="U93" s="61">
+        <v>0</v>
+      </c>
+      <c r="V93" s="61">
+        <v>0</v>
+      </c>
+      <c r="W93" s="61">
+        <v>0</v>
+      </c>
+      <c r="X93" s="61">
+        <v>0</v>
+      </c>
+      <c r="Y93">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25">
       <c r="A94" s="1">
         <v>73.553560000000004</v>
       </c>
@@ -7462,15 +7805,24 @@
         <f t="shared" si="9"/>
         <v>97.802375000000012</v>
       </c>
-      <c r="U94" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z94" t="e">
+      <c r="U94" s="62">
+        <v>0</v>
+      </c>
+      <c r="V94" s="62">
+        <v>0</v>
+      </c>
+      <c r="W94" s="62">
+        <v>0</v>
+      </c>
+      <c r="X94" s="62">
+        <v>0</v>
+      </c>
+      <c r="Y94">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25">
       <c r="A95" s="1">
         <v>75.345280000000002</v>
       </c>
@@ -7535,15 +7887,24 @@
         <f t="shared" si="9"/>
         <v>97.042110000000008</v>
       </c>
-      <c r="U95" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z95" t="e">
+      <c r="U95" s="63">
+        <v>0</v>
+      </c>
+      <c r="V95" s="63">
+        <v>0</v>
+      </c>
+      <c r="W95" s="63">
+        <v>0</v>
+      </c>
+      <c r="X95" s="63">
+        <v>0</v>
+      </c>
+      <c r="Y95">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25">
       <c r="A96" s="1">
         <v>75.08399</v>
       </c>
@@ -7608,15 +7969,24 @@
         <f t="shared" si="9"/>
         <v>97.421825000000013</v>
       </c>
-      <c r="U96" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z96" t="e">
+      <c r="U96" s="64">
+        <v>0</v>
+      </c>
+      <c r="V96" s="64">
+        <v>0</v>
+      </c>
+      <c r="W96" s="64">
+        <v>0</v>
+      </c>
+      <c r="X96" s="64">
+        <v>0</v>
+      </c>
+      <c r="Y96">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25">
       <c r="A97" s="1">
         <v>71.817840000000004</v>
       </c>
@@ -7681,15 +8051,24 @@
         <f t="shared" si="9"/>
         <v>96.642165000000006</v>
       </c>
-      <c r="U97" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z97" t="e">
+      <c r="U97" s="65">
+        <v>0</v>
+      </c>
+      <c r="V97" s="65">
+        <v>0</v>
+      </c>
+      <c r="W97" s="65">
+        <v>0</v>
+      </c>
+      <c r="X97" s="65">
+        <v>0</v>
+      </c>
+      <c r="Y97">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25">
       <c r="A98" s="1">
         <v>69.859939999999995</v>
       </c>
@@ -7754,15 +8133,12 @@
         <f t="shared" si="9"/>
         <v>97.760954999999996</v>
       </c>
-      <c r="U98" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z98" t="e">
+      <c r="Y98" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25">
       <c r="A99" s="1">
         <v>75.587909999999994</v>
       </c>
@@ -7827,15 +8203,12 @@
         <f t="shared" si="9"/>
         <v>96.961235000000002</v>
       </c>
-      <c r="U99" t="s">
-        <v>102</v>
-      </c>
-      <c r="Z99" t="e">
+      <c r="Y99" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25">
       <c r="A100" s="1">
         <v>79.238950000000003</v>
       </c>
@@ -7900,15 +8273,12 @@
         <f t="shared" si="9"/>
         <v>96.270904999999999</v>
       </c>
-      <c r="U100" t="s">
-        <v>103</v>
-      </c>
-      <c r="Z100" t="e">
+      <c r="Y100" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25">
       <c r="A101" s="1">
         <v>76.194029999999998</v>
       </c>
@@ -7973,15 +8343,12 @@
         <f t="shared" si="9"/>
         <v>96.995640000000009</v>
       </c>
-      <c r="U101" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z101" t="e">
+      <c r="Y101" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25">
       <c r="A102" s="1">
         <v>75.331220000000002</v>
       </c>
@@ -8046,15 +8413,12 @@
         <f t="shared" si="9"/>
         <v>96.729420000000005</v>
       </c>
-      <c r="U102" t="s">
-        <v>105</v>
-      </c>
-      <c r="Z102" t="e">
+      <c r="Y102" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25">
       <c r="A103" s="1">
         <v>78.690049999999999</v>
       </c>
@@ -8119,15 +8483,12 @@
         <f t="shared" si="9"/>
         <v>97.339210000000008</v>
       </c>
-      <c r="U103" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z103" t="e">
+      <c r="Y103" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25">
       <c r="A104" s="1">
         <v>79.693920000000006</v>
       </c>
@@ -8192,15 +8553,12 @@
         <f t="shared" si="9"/>
         <v>97.512754999999999</v>
       </c>
-      <c r="U104" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z104" t="e">
+      <c r="Y104" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25">
       <c r="A105" s="1">
         <v>77.448239999999998</v>
       </c>
@@ -8265,15 +8623,24 @@
         <f t="shared" si="9"/>
         <v>96.965540000000004</v>
       </c>
-      <c r="U105" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z105" t="e">
+      <c r="U105" s="66">
+        <v>0</v>
+      </c>
+      <c r="V105" s="66">
+        <v>0</v>
+      </c>
+      <c r="W105" s="66">
+        <v>0</v>
+      </c>
+      <c r="X105" s="66">
+        <v>0</v>
+      </c>
+      <c r="Y105">
         <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25">
       <c r="A106" s="1">
         <v>85.879499999999993</v>
       </c>
@@ -8338,15 +8705,12 @@
         <f t="shared" si="9"/>
         <v>96.193605000000005</v>
       </c>
-      <c r="U106" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z106" t="e">
+      <c r="Y106" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:25">
       <c r="A107" s="1">
         <v>86.439099999999996</v>
       </c>
@@ -8411,10 +8775,7 @@
         <f t="shared" si="9"/>
         <v>97.349115000000012</v>
       </c>
-      <c r="U107" t="s">
-        <v>110</v>
-      </c>
-      <c r="Z107" t="e">
+      <c r="Y107" t="e">
         <f t="shared" si="8"/>
         <v>#NUM!</v>
       </c>
